--- a/DCIT 23 - CS 1A/DCIT 23 - CS 1A.xlsx
+++ b/DCIT 23 - CS 1A/DCIT 23 - CS 1A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\DCIT 23 - CS 1A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\Grading-Sheets-Second-Sem-2017-2018\DCIT 23 - CS 1A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825985D4-C21C-40D0-9EB2-9AFACFFEE14D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F604EB25-5568-42B7-9D79-36443F545BFB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2407,6 +2407,107 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -2479,120 +2580,70 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2631,18 +2682,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2651,45 +2690,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2750,14 +2750,78 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2786,67 +2850,51 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2870,14 +2918,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2906,45 +2946,38 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2986,39 +3019,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4034,85 +4034,85 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:19">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="170"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="146"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A3" s="171"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="173"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A4" s="165"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A5" s="183"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="183"/>
-      <c r="N5" s="183"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="137" t="s">
+      <c r="A6" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="165"/>
+      <c r="C6" s="166" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="138" t="s">
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="138"/>
+      <c r="G6" s="167"/>
       <c r="H6" s="1">
         <v>3</v>
       </c>
@@ -4122,18 +4122,18 @@
       <c r="J6" s="111" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="139" t="s">
+      <c r="K6" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="139"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="140"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="142"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="3" t="s">
         <v>162</v>
       </c>
@@ -4143,10 +4143,10 @@
       <c r="E7" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="143" t="s">
+      <c r="F7" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="143"/>
+      <c r="G7" s="172"/>
       <c r="H7" s="5">
         <v>0</v>
       </c>
@@ -4156,18 +4156,18 @@
       <c r="J7" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K7" s="143" t="s">
+      <c r="K7" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="143"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="146"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="8" t="s">
         <v>127</v>
       </c>
@@ -4177,10 +4177,10 @@
       <c r="E8" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="147" t="s">
+      <c r="F8" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="147"/>
+      <c r="G8" s="176"/>
       <c r="H8" s="10">
         <f>SUM(H6:H7)</f>
         <v>3</v>
@@ -4191,34 +4191,34 @@
       <c r="J8" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="K8" s="147" t="s">
+      <c r="K8" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="147"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
+      <c r="L8" s="176"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="179" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="153" t="s">
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="153" t="s">
+      <c r="H9" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="183"/>
       <c r="K9" s="155" t="s">
         <v>16</v>
       </c>
@@ -4229,22 +4229,22 @@
       <c r="N9" s="156"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A10" s="149"/>
-      <c r="B10" s="151"/>
+      <c r="A10" s="178"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="179" t="s">
+      <c r="D10" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="180"/>
+      <c r="E10" s="136"/>
       <c r="F10" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
       <c r="K10" s="156"/>
       <c r="L10" s="156"/>
       <c r="M10" s="156"/>
@@ -4268,19 +4268,19 @@
         <v>192</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="162"/>
-      <c r="P11" s="174" t="s">
+      <c r="H11" s="157"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="159"/>
+      <c r="P11" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="175"/>
-      <c r="R11" s="175"/>
-      <c r="S11" s="176"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="152"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="12">
@@ -4300,21 +4300,21 @@
         <v>209</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
       <c r="P12" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="166" t="s">
+      <c r="Q12" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="R12" s="166"/>
-      <c r="S12" s="167"/>
+      <c r="R12" s="142"/>
+      <c r="S12" s="143"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="12">
@@ -4334,21 +4334,21 @@
         <v>178</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="159"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
       <c r="P13" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="166" t="s">
+      <c r="Q13" s="142" t="s">
         <v>165</v>
       </c>
-      <c r="R13" s="166"/>
-      <c r="S13" s="167"/>
+      <c r="R13" s="142"/>
+      <c r="S13" s="143"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="12">
@@ -4366,21 +4366,21 @@
       <c r="E14" s="130"/>
       <c r="F14" s="129"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
       <c r="P14" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="166" t="s">
+      <c r="Q14" s="142" t="s">
         <v>166</v>
       </c>
-      <c r="R14" s="166"/>
-      <c r="S14" s="167"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="143"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="12">
@@ -4400,21 +4400,21 @@
         <v>192</v>
       </c>
       <c r="G15" s="14"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
       <c r="P15" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="Q15" s="166" t="s">
+      <c r="Q15" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="R15" s="166"/>
-      <c r="S15" s="167"/>
+      <c r="R15" s="142"/>
+      <c r="S15" s="143"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="12">
@@ -4434,21 +4434,21 @@
         <v>222</v>
       </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="159"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="140"/>
       <c r="P16" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="177" t="s">
+      <c r="Q16" s="153" t="s">
         <v>168</v>
       </c>
-      <c r="R16" s="177"/>
-      <c r="S16" s="178"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="154"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="12">
@@ -4468,21 +4468,21 @@
         <v>222</v>
       </c>
       <c r="G17" s="14"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="159"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
       <c r="P17" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="Q17" s="166" t="s">
+      <c r="Q17" s="142" t="s">
         <v>169</v>
       </c>
-      <c r="R17" s="166"/>
-      <c r="S17" s="167"/>
+      <c r="R17" s="142"/>
+      <c r="S17" s="143"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1">
       <c r="A18" s="12">
@@ -4502,21 +4502,21 @@
         <v>204</v>
       </c>
       <c r="G18" s="14"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
       <c r="P18" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="Q18" s="133" t="s">
+      <c r="Q18" s="162" t="s">
         <v>170</v>
       </c>
-      <c r="R18" s="133"/>
-      <c r="S18" s="134"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="163"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="12">
@@ -4536,13 +4536,13 @@
         <v>204</v>
       </c>
       <c r="G19" s="14"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="159"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="140"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="12">
@@ -4562,13 +4562,13 @@
         <v>178</v>
       </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="159"/>
-      <c r="N20" s="159"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="140"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="12">
@@ -4588,13 +4588,13 @@
         <v>163</v>
       </c>
       <c r="G21" s="14"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="159"/>
-      <c r="N21" s="159"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="140"/>
+      <c r="N21" s="140"/>
       <c r="Q21" s="79" t="s">
         <v>112</v>
       </c>
@@ -4617,13 +4617,13 @@
         <v>184</v>
       </c>
       <c r="G22" s="14"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="140"/>
       <c r="Q22" s="80">
         <v>0</v>
       </c>
@@ -4649,13 +4649,13 @@
         <v>222</v>
       </c>
       <c r="G23" s="14"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="159"/>
-      <c r="N23" s="159"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="140"/>
+      <c r="N23" s="140"/>
       <c r="Q23" s="81">
         <v>70</v>
       </c>
@@ -4681,13 +4681,13 @@
         <v>181</v>
       </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="140"/>
+      <c r="N24" s="140"/>
       <c r="Q24" s="81">
         <v>73.34</v>
       </c>
@@ -4713,13 +4713,13 @@
         <v>222</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="159"/>
-      <c r="N25" s="159"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="140"/>
+      <c r="N25" s="140"/>
       <c r="Q25" s="81">
         <v>76.680000000000007</v>
       </c>
@@ -4745,13 +4745,13 @@
         <v>184</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="159"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
       <c r="Q26" s="81">
         <v>80.02</v>
       </c>
@@ -4777,13 +4777,13 @@
         <v>195</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="159"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
       <c r="Q27" s="81">
         <v>83.36</v>
       </c>
@@ -4809,13 +4809,13 @@
         <v>189</v>
       </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
       <c r="Q28" s="81">
         <v>86.7</v>
       </c>
@@ -4841,13 +4841,13 @@
         <v>184</v>
       </c>
       <c r="G29" s="14"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="159"/>
-      <c r="N29" s="159"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
       <c r="Q29" s="81">
         <v>90.04</v>
       </c>
@@ -4873,13 +4873,13 @@
         <v>216</v>
       </c>
       <c r="G30" s="14"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="140"/>
+      <c r="N30" s="140"/>
       <c r="Q30" s="81">
         <v>93.38</v>
       </c>
@@ -4905,13 +4905,13 @@
         <v>204</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="159"/>
-      <c r="N31" s="159"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="140"/>
       <c r="Q31" s="80"/>
       <c r="R31" s="80"/>
     </row>
@@ -4933,13 +4933,13 @@
         <v>195</v>
       </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="140"/>
+      <c r="N32" s="140"/>
       <c r="Q32" s="80">
         <v>96.72</v>
       </c>
@@ -4963,13 +4963,13 @@
       <c r="E33" s="124"/>
       <c r="F33" s="121"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="159"/>
-      <c r="N33" s="159"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="140"/>
+      <c r="N33" s="140"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="12">
@@ -4989,13 +4989,13 @@
         <v>219</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="157"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="159"/>
-      <c r="N34" s="159"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="140"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="12">
@@ -5003,17 +5003,17 @@
       </c>
       <c r="B35" s="114"/>
       <c r="C35" s="114"/>
-      <c r="D35" s="181"/>
-      <c r="E35" s="182"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="134"/>
       <c r="F35" s="114"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="157"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="159"/>
-      <c r="N35" s="159"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="139"/>
+      <c r="L35" s="139"/>
+      <c r="M35" s="140"/>
+      <c r="N35" s="140"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="12">
@@ -5021,17 +5021,17 @@
       </c>
       <c r="B36" s="109"/>
       <c r="C36" s="109"/>
-      <c r="D36" s="181"/>
-      <c r="E36" s="182"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="134"/>
       <c r="F36" s="109"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="159"/>
-      <c r="N36" s="159"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="139"/>
+      <c r="L36" s="139"/>
+      <c r="M36" s="140"/>
+      <c r="N36" s="140"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="12">
@@ -5039,17 +5039,17 @@
       </c>
       <c r="B37" s="109"/>
       <c r="C37" s="109"/>
-      <c r="D37" s="181"/>
-      <c r="E37" s="182"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="134"/>
       <c r="F37" s="109"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="157"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="159"/>
-      <c r="N37" s="159"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="138"/>
+      <c r="K37" s="139"/>
+      <c r="L37" s="139"/>
+      <c r="M37" s="140"/>
+      <c r="N37" s="140"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="12">
@@ -5057,17 +5057,17 @@
       </c>
       <c r="B38" s="114"/>
       <c r="C38" s="114"/>
-      <c r="D38" s="181"/>
-      <c r="E38" s="182"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="134"/>
       <c r="F38" s="109"/>
       <c r="G38" s="14"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="159"/>
-      <c r="N38" s="159"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="139"/>
+      <c r="L38" s="139"/>
+      <c r="M38" s="140"/>
+      <c r="N38" s="140"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="12">
@@ -5075,17 +5075,17 @@
       </c>
       <c r="B39" s="109"/>
       <c r="C39" s="109"/>
-      <c r="D39" s="181"/>
-      <c r="E39" s="182"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="134"/>
       <c r="F39" s="109"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="158"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="159"/>
-      <c r="N39" s="159"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="138"/>
+      <c r="J39" s="138"/>
+      <c r="K39" s="139"/>
+      <c r="L39" s="139"/>
+      <c r="M39" s="140"/>
+      <c r="N39" s="140"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="12">
@@ -5093,17 +5093,17 @@
       </c>
       <c r="B40" s="109"/>
       <c r="C40" s="109"/>
-      <c r="D40" s="181"/>
-      <c r="E40" s="182"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="134"/>
       <c r="F40" s="109"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="158"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="159"/>
-      <c r="N40" s="159"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="138"/>
+      <c r="K40" s="139"/>
+      <c r="L40" s="139"/>
+      <c r="M40" s="140"/>
+      <c r="N40" s="140"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="12">
@@ -5111,17 +5111,17 @@
       </c>
       <c r="B41" s="109"/>
       <c r="C41" s="109"/>
-      <c r="D41" s="181"/>
-      <c r="E41" s="182"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="134"/>
       <c r="F41" s="109"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="157"/>
-      <c r="K41" s="158"/>
-      <c r="L41" s="158"/>
-      <c r="M41" s="159"/>
-      <c r="N41" s="159"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="139"/>
+      <c r="L41" s="139"/>
+      <c r="M41" s="140"/>
+      <c r="N41" s="140"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="12">
@@ -5129,17 +5129,17 @@
       </c>
       <c r="B42" s="109"/>
       <c r="C42" s="109"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="182"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="134"/>
       <c r="F42" s="109"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="157"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="158"/>
-      <c r="L42" s="158"/>
-      <c r="M42" s="159"/>
-      <c r="N42" s="159"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="139"/>
+      <c r="L42" s="139"/>
+      <c r="M42" s="140"/>
+      <c r="N42" s="140"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="12">
@@ -5147,17 +5147,17 @@
       </c>
       <c r="B43" s="109"/>
       <c r="C43" s="113"/>
-      <c r="D43" s="181"/>
-      <c r="E43" s="182"/>
+      <c r="D43" s="133"/>
+      <c r="E43" s="134"/>
       <c r="F43" s="109"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="157"/>
-      <c r="I43" s="157"/>
-      <c r="J43" s="157"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="158"/>
-      <c r="M43" s="159"/>
-      <c r="N43" s="159"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="139"/>
+      <c r="L43" s="139"/>
+      <c r="M43" s="140"/>
+      <c r="N43" s="140"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="12">
@@ -5165,17 +5165,17 @@
       </c>
       <c r="B44" s="109"/>
       <c r="C44" s="109"/>
-      <c r="D44" s="181"/>
-      <c r="E44" s="182"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="134"/>
       <c r="F44" s="109"/>
       <c r="G44" s="14"/>
-      <c r="H44" s="157"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="157"/>
-      <c r="K44" s="158"/>
-      <c r="L44" s="158"/>
-      <c r="M44" s="159"/>
-      <c r="N44" s="159"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="139"/>
+      <c r="L44" s="139"/>
+      <c r="M44" s="140"/>
+      <c r="N44" s="140"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="12">
@@ -5183,17 +5183,17 @@
       </c>
       <c r="B45" s="109"/>
       <c r="C45" s="109"/>
-      <c r="D45" s="181"/>
-      <c r="E45" s="182"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="134"/>
       <c r="F45" s="109"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="157"/>
-      <c r="I45" s="157"/>
-      <c r="J45" s="157"/>
-      <c r="K45" s="158"/>
-      <c r="L45" s="158"/>
-      <c r="M45" s="159"/>
-      <c r="N45" s="159"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="138"/>
+      <c r="J45" s="138"/>
+      <c r="K45" s="139"/>
+      <c r="L45" s="139"/>
+      <c r="M45" s="140"/>
+      <c r="N45" s="140"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="12">
@@ -5201,17 +5201,17 @@
       </c>
       <c r="B46" s="115"/>
       <c r="C46" s="109"/>
-      <c r="D46" s="181"/>
-      <c r="E46" s="182"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="134"/>
       <c r="F46" s="109"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="157"/>
-      <c r="I46" s="157"/>
-      <c r="J46" s="157"/>
-      <c r="K46" s="158"/>
-      <c r="L46" s="158"/>
-      <c r="M46" s="159"/>
-      <c r="N46" s="159"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="138"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="139"/>
+      <c r="M46" s="140"/>
+      <c r="N46" s="140"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="12">
@@ -5219,17 +5219,17 @@
       </c>
       <c r="B47" s="115"/>
       <c r="C47" s="109"/>
-      <c r="D47" s="181"/>
-      <c r="E47" s="182"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="134"/>
       <c r="F47" s="109"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="157"/>
-      <c r="I47" s="157"/>
-      <c r="J47" s="157"/>
-      <c r="K47" s="158"/>
-      <c r="L47" s="158"/>
-      <c r="M47" s="159"/>
-      <c r="N47" s="159"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="138"/>
+      <c r="K47" s="139"/>
+      <c r="L47" s="139"/>
+      <c r="M47" s="140"/>
+      <c r="N47" s="140"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="12">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="B48" s="109"/>
       <c r="C48" s="109"/>
-      <c r="D48" s="181"/>
-      <c r="E48" s="182"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="134"/>
       <c r="F48" s="109"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="157"/>
-      <c r="J48" s="157"/>
-      <c r="K48" s="158"/>
-      <c r="L48" s="158"/>
-      <c r="M48" s="159"/>
-      <c r="N48" s="159"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="138"/>
+      <c r="J48" s="138"/>
+      <c r="K48" s="139"/>
+      <c r="L48" s="139"/>
+      <c r="M48" s="140"/>
+      <c r="N48" s="140"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="12">
@@ -5255,17 +5255,17 @@
       </c>
       <c r="B49" s="109"/>
       <c r="C49" s="109"/>
-      <c r="D49" s="181"/>
-      <c r="E49" s="182"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="134"/>
       <c r="F49" s="109"/>
       <c r="G49" s="14"/>
-      <c r="H49" s="157"/>
-      <c r="I49" s="157"/>
-      <c r="J49" s="157"/>
-      <c r="K49" s="158"/>
-      <c r="L49" s="158"/>
-      <c r="M49" s="159"/>
-      <c r="N49" s="159"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="138"/>
+      <c r="J49" s="138"/>
+      <c r="K49" s="139"/>
+      <c r="L49" s="139"/>
+      <c r="M49" s="140"/>
+      <c r="N49" s="140"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="12">
@@ -5273,17 +5273,17 @@
       </c>
       <c r="B50" s="109"/>
       <c r="C50" s="109"/>
-      <c r="D50" s="181"/>
-      <c r="E50" s="182"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="134"/>
       <c r="F50" s="109"/>
       <c r="G50" s="14"/>
-      <c r="H50" s="157"/>
-      <c r="I50" s="157"/>
-      <c r="J50" s="157"/>
-      <c r="K50" s="158"/>
-      <c r="L50" s="158"/>
-      <c r="M50" s="159"/>
-      <c r="N50" s="159"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="138"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="139"/>
+      <c r="L50" s="139"/>
+      <c r="M50" s="140"/>
+      <c r="N50" s="140"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="12">
@@ -5291,17 +5291,17 @@
       </c>
       <c r="B51" s="109"/>
       <c r="C51" s="109"/>
-      <c r="D51" s="181"/>
-      <c r="E51" s="182"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="134"/>
       <c r="F51" s="109"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="157"/>
-      <c r="K51" s="158"/>
-      <c r="L51" s="158"/>
-      <c r="M51" s="159"/>
-      <c r="N51" s="159"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
+      <c r="J51" s="138"/>
+      <c r="K51" s="139"/>
+      <c r="L51" s="139"/>
+      <c r="M51" s="140"/>
+      <c r="N51" s="140"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="12">
@@ -5309,17 +5309,17 @@
       </c>
       <c r="B52" s="109"/>
       <c r="C52" s="109"/>
-      <c r="D52" s="181"/>
-      <c r="E52" s="182"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="134"/>
       <c r="F52" s="109"/>
       <c r="G52" s="14"/>
-      <c r="H52" s="157"/>
-      <c r="I52" s="157"/>
-      <c r="J52" s="157"/>
-      <c r="K52" s="158"/>
-      <c r="L52" s="158"/>
-      <c r="M52" s="159"/>
-      <c r="N52" s="159"/>
+      <c r="H52" s="138"/>
+      <c r="I52" s="138"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="139"/>
+      <c r="L52" s="139"/>
+      <c r="M52" s="140"/>
+      <c r="N52" s="140"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="12">
@@ -5327,17 +5327,17 @@
       </c>
       <c r="B53" s="109"/>
       <c r="C53" s="109"/>
-      <c r="D53" s="181"/>
-      <c r="E53" s="182"/>
+      <c r="D53" s="133"/>
+      <c r="E53" s="134"/>
       <c r="F53" s="109"/>
       <c r="G53" s="14"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="157"/>
-      <c r="K53" s="158"/>
-      <c r="L53" s="158"/>
-      <c r="M53" s="159"/>
-      <c r="N53" s="159"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="138"/>
+      <c r="J53" s="138"/>
+      <c r="K53" s="139"/>
+      <c r="L53" s="139"/>
+      <c r="M53" s="140"/>
+      <c r="N53" s="140"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="12">
@@ -5345,17 +5345,17 @@
       </c>
       <c r="B54" s="109"/>
       <c r="C54" s="109"/>
-      <c r="D54" s="181"/>
-      <c r="E54" s="182"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="134"/>
       <c r="F54" s="109"/>
       <c r="G54" s="14"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="158"/>
-      <c r="L54" s="158"/>
-      <c r="M54" s="159"/>
-      <c r="N54" s="159"/>
+      <c r="H54" s="138"/>
+      <c r="I54" s="138"/>
+      <c r="J54" s="138"/>
+      <c r="K54" s="139"/>
+      <c r="L54" s="139"/>
+      <c r="M54" s="140"/>
+      <c r="N54" s="140"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="12">
@@ -5363,17 +5363,17 @@
       </c>
       <c r="B55" s="109"/>
       <c r="C55" s="113"/>
-      <c r="D55" s="181"/>
-      <c r="E55" s="182"/>
+      <c r="D55" s="133"/>
+      <c r="E55" s="134"/>
       <c r="F55" s="109"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="157"/>
-      <c r="K55" s="158"/>
-      <c r="L55" s="158"/>
-      <c r="M55" s="159"/>
-      <c r="N55" s="159"/>
+      <c r="H55" s="138"/>
+      <c r="I55" s="138"/>
+      <c r="J55" s="138"/>
+      <c r="K55" s="139"/>
+      <c r="L55" s="139"/>
+      <c r="M55" s="140"/>
+      <c r="N55" s="140"/>
     </row>
     <row r="56" spans="1:14" hidden="1">
       <c r="A56" s="12">
@@ -5385,13 +5385,13 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="157"/>
-      <c r="I56" s="157"/>
-      <c r="J56" s="157"/>
-      <c r="K56" s="158"/>
-      <c r="L56" s="158"/>
-      <c r="M56" s="159"/>
-      <c r="N56" s="159"/>
+      <c r="H56" s="138"/>
+      <c r="I56" s="138"/>
+      <c r="J56" s="138"/>
+      <c r="K56" s="139"/>
+      <c r="L56" s="139"/>
+      <c r="M56" s="140"/>
+      <c r="N56" s="140"/>
     </row>
     <row r="57" spans="1:14" hidden="1">
       <c r="A57" s="12">
@@ -5403,13 +5403,13 @@
       <c r="E57" s="71"/>
       <c r="F57" s="71"/>
       <c r="G57" s="14"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="158"/>
-      <c r="L57" s="158"/>
-      <c r="M57" s="159"/>
-      <c r="N57" s="159"/>
+      <c r="H57" s="138"/>
+      <c r="I57" s="138"/>
+      <c r="J57" s="138"/>
+      <c r="K57" s="139"/>
+      <c r="L57" s="139"/>
+      <c r="M57" s="140"/>
+      <c r="N57" s="140"/>
     </row>
     <row r="58" spans="1:14" hidden="1">
       <c r="A58" s="12">
@@ -5421,13 +5421,13 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="14"/>
-      <c r="H58" s="157"/>
-      <c r="I58" s="157"/>
-      <c r="J58" s="157"/>
-      <c r="K58" s="158"/>
-      <c r="L58" s="158"/>
-      <c r="M58" s="159"/>
-      <c r="N58" s="159"/>
+      <c r="H58" s="138"/>
+      <c r="I58" s="138"/>
+      <c r="J58" s="138"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="139"/>
+      <c r="M58" s="140"/>
+      <c r="N58" s="140"/>
     </row>
     <row r="59" spans="1:14" hidden="1">
       <c r="A59" s="12">
@@ -5439,13 +5439,13 @@
       <c r="E59" s="71"/>
       <c r="F59" s="71"/>
       <c r="G59" s="14"/>
-      <c r="H59" s="157"/>
-      <c r="I59" s="157"/>
-      <c r="J59" s="157"/>
-      <c r="K59" s="158"/>
-      <c r="L59" s="158"/>
-      <c r="M59" s="159"/>
-      <c r="N59" s="159"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="138"/>
+      <c r="J59" s="138"/>
+      <c r="K59" s="139"/>
+      <c r="L59" s="139"/>
+      <c r="M59" s="140"/>
+      <c r="N59" s="140"/>
     </row>
     <row r="60" spans="1:14" hidden="1">
       <c r="A60" s="12">
@@ -5457,13 +5457,13 @@
       <c r="E60" s="71"/>
       <c r="F60" s="71"/>
       <c r="G60" s="14"/>
-      <c r="H60" s="157"/>
-      <c r="I60" s="157"/>
-      <c r="J60" s="157"/>
-      <c r="K60" s="158"/>
-      <c r="L60" s="158"/>
-      <c r="M60" s="159"/>
-      <c r="N60" s="159"/>
+      <c r="H60" s="138"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="138"/>
+      <c r="K60" s="139"/>
+      <c r="L60" s="139"/>
+      <c r="M60" s="140"/>
+      <c r="N60" s="140"/>
     </row>
     <row r="61" spans="1:14" hidden="1">
       <c r="A61" s="12">
@@ -5475,13 +5475,13 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="14"/>
-      <c r="H61" s="157"/>
-      <c r="I61" s="157"/>
-      <c r="J61" s="157"/>
-      <c r="K61" s="158"/>
-      <c r="L61" s="158"/>
-      <c r="M61" s="159"/>
-      <c r="N61" s="159"/>
+      <c r="H61" s="138"/>
+      <c r="I61" s="138"/>
+      <c r="J61" s="138"/>
+      <c r="K61" s="139"/>
+      <c r="L61" s="139"/>
+      <c r="M61" s="140"/>
+      <c r="N61" s="140"/>
     </row>
     <row r="62" spans="1:14" hidden="1">
       <c r="A62" s="12">
@@ -5493,13 +5493,13 @@
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
       <c r="G62" s="14"/>
-      <c r="H62" s="157"/>
-      <c r="I62" s="157"/>
-      <c r="J62" s="157"/>
-      <c r="K62" s="158"/>
-      <c r="L62" s="158"/>
-      <c r="M62" s="159"/>
-      <c r="N62" s="159"/>
+      <c r="H62" s="138"/>
+      <c r="I62" s="138"/>
+      <c r="J62" s="138"/>
+      <c r="K62" s="139"/>
+      <c r="L62" s="139"/>
+      <c r="M62" s="140"/>
+      <c r="N62" s="140"/>
     </row>
     <row r="63" spans="1:14" hidden="1">
       <c r="A63" s="12">
@@ -5511,13 +5511,13 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="157"/>
-      <c r="I63" s="157"/>
-      <c r="J63" s="157"/>
-      <c r="K63" s="158"/>
-      <c r="L63" s="158"/>
-      <c r="M63" s="159"/>
-      <c r="N63" s="159"/>
+      <c r="H63" s="138"/>
+      <c r="I63" s="138"/>
+      <c r="J63" s="138"/>
+      <c r="K63" s="139"/>
+      <c r="L63" s="139"/>
+      <c r="M63" s="140"/>
+      <c r="N63" s="140"/>
     </row>
     <row r="64" spans="1:14" hidden="1">
       <c r="A64" s="12">
@@ -5529,13 +5529,13 @@
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
       <c r="G64" s="14"/>
-      <c r="H64" s="157"/>
-      <c r="I64" s="157"/>
-      <c r="J64" s="157"/>
-      <c r="K64" s="158"/>
-      <c r="L64" s="158"/>
-      <c r="M64" s="159"/>
-      <c r="N64" s="159"/>
+      <c r="H64" s="138"/>
+      <c r="I64" s="138"/>
+      <c r="J64" s="138"/>
+      <c r="K64" s="139"/>
+      <c r="L64" s="139"/>
+      <c r="M64" s="140"/>
+      <c r="N64" s="140"/>
     </row>
     <row r="65" spans="1:14" hidden="1">
       <c r="A65" s="12">
@@ -5547,13 +5547,13 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="14"/>
-      <c r="H65" s="157"/>
-      <c r="I65" s="157"/>
-      <c r="J65" s="157"/>
-      <c r="K65" s="158"/>
-      <c r="L65" s="158"/>
-      <c r="M65" s="159"/>
-      <c r="N65" s="159"/>
+      <c r="H65" s="138"/>
+      <c r="I65" s="138"/>
+      <c r="J65" s="138"/>
+      <c r="K65" s="139"/>
+      <c r="L65" s="139"/>
+      <c r="M65" s="140"/>
+      <c r="N65" s="140"/>
     </row>
     <row r="66" spans="1:14" hidden="1">
       <c r="A66" s="12">
@@ -5565,13 +5565,13 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="14"/>
-      <c r="H66" s="157"/>
-      <c r="I66" s="157"/>
-      <c r="J66" s="157"/>
-      <c r="K66" s="158"/>
-      <c r="L66" s="158"/>
-      <c r="M66" s="159"/>
-      <c r="N66" s="159"/>
+      <c r="H66" s="138"/>
+      <c r="I66" s="138"/>
+      <c r="J66" s="138"/>
+      <c r="K66" s="139"/>
+      <c r="L66" s="139"/>
+      <c r="M66" s="140"/>
+      <c r="N66" s="140"/>
     </row>
     <row r="67" spans="1:14" hidden="1">
       <c r="A67" s="12">
@@ -5583,13 +5583,13 @@
       <c r="E67" s="13"/>
       <c r="F67" s="71"/>
       <c r="G67" s="14"/>
-      <c r="H67" s="157"/>
-      <c r="I67" s="157"/>
-      <c r="J67" s="157"/>
-      <c r="K67" s="158"/>
-      <c r="L67" s="158"/>
-      <c r="M67" s="159"/>
-      <c r="N67" s="159"/>
+      <c r="H67" s="138"/>
+      <c r="I67" s="138"/>
+      <c r="J67" s="138"/>
+      <c r="K67" s="139"/>
+      <c r="L67" s="139"/>
+      <c r="M67" s="140"/>
+      <c r="N67" s="140"/>
     </row>
     <row r="68" spans="1:14" hidden="1">
       <c r="A68" s="12">
@@ -5601,13 +5601,13 @@
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="14"/>
-      <c r="H68" s="157"/>
-      <c r="I68" s="157"/>
-      <c r="J68" s="157"/>
-      <c r="K68" s="158"/>
-      <c r="L68" s="158"/>
-      <c r="M68" s="159"/>
-      <c r="N68" s="159"/>
+      <c r="H68" s="138"/>
+      <c r="I68" s="138"/>
+      <c r="J68" s="138"/>
+      <c r="K68" s="139"/>
+      <c r="L68" s="139"/>
+      <c r="M68" s="140"/>
+      <c r="N68" s="140"/>
     </row>
     <row r="69" spans="1:14" hidden="1">
       <c r="A69" s="12">
@@ -5619,13 +5619,13 @@
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="14"/>
-      <c r="H69" s="157"/>
-      <c r="I69" s="157"/>
-      <c r="J69" s="157"/>
-      <c r="K69" s="158"/>
-      <c r="L69" s="158"/>
-      <c r="M69" s="159"/>
-      <c r="N69" s="159"/>
+      <c r="H69" s="138"/>
+      <c r="I69" s="138"/>
+      <c r="J69" s="138"/>
+      <c r="K69" s="139"/>
+      <c r="L69" s="139"/>
+      <c r="M69" s="140"/>
+      <c r="N69" s="140"/>
     </row>
     <row r="70" spans="1:14" hidden="1">
       <c r="A70" s="12">
@@ -5637,13 +5637,13 @@
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="14"/>
-      <c r="H70" s="157"/>
-      <c r="I70" s="157"/>
-      <c r="J70" s="157"/>
-      <c r="K70" s="158"/>
-      <c r="L70" s="158"/>
-      <c r="M70" s="159"/>
-      <c r="N70" s="159"/>
+      <c r="H70" s="138"/>
+      <c r="I70" s="138"/>
+      <c r="J70" s="138"/>
+      <c r="K70" s="139"/>
+      <c r="L70" s="139"/>
+      <c r="M70" s="140"/>
+      <c r="N70" s="140"/>
     </row>
     <row r="71" spans="1:14" hidden="1">
       <c r="A71" s="12">
@@ -5655,13 +5655,13 @@
       <c r="E71" s="71"/>
       <c r="F71" s="71"/>
       <c r="G71" s="14"/>
-      <c r="H71" s="157"/>
-      <c r="I71" s="157"/>
-      <c r="J71" s="157"/>
-      <c r="K71" s="158"/>
-      <c r="L71" s="158"/>
-      <c r="M71" s="159"/>
-      <c r="N71" s="159"/>
+      <c r="H71" s="138"/>
+      <c r="I71" s="138"/>
+      <c r="J71" s="138"/>
+      <c r="K71" s="139"/>
+      <c r="L71" s="139"/>
+      <c r="M71" s="140"/>
+      <c r="N71" s="140"/>
     </row>
   </sheetData>
   <sheetProtection sort="0"/>
@@ -5669,23 +5669,201 @@
     <sortCondition ref="C11:C45"/>
   </sortState>
   <mergeCells count="236">
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="A2:N3"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
@@ -5710,201 +5888,23 @@
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:N34"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="A2:N3"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <conditionalFormatting sqref="B35:B71">
     <cfRule type="cellIs" dxfId="26" priority="32" stopIfTrue="1" operator="equal">
@@ -6025,9 +6025,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:BI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG18" sqref="BG18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV31" sqref="AV31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6049,296 +6049,296 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:61" ht="15" customHeight="1">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="212"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="212"/>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="212"/>
-      <c r="AD2" s="212"/>
-      <c r="AE2" s="212"/>
-      <c r="AF2" s="212"/>
-      <c r="AG2" s="212"/>
-      <c r="AH2" s="212"/>
-      <c r="AI2" s="212"/>
-      <c r="AJ2" s="212"/>
-      <c r="AK2" s="212"/>
-      <c r="AL2" s="212"/>
-      <c r="AM2" s="212"/>
-      <c r="AN2" s="212"/>
-      <c r="AO2" s="212"/>
-      <c r="AP2" s="212"/>
-      <c r="AQ2" s="212"/>
-      <c r="AR2" s="212"/>
-      <c r="AS2" s="212"/>
-      <c r="AT2" s="212"/>
-      <c r="AU2" s="212"/>
-      <c r="AV2" s="212"/>
-      <c r="AW2" s="212"/>
-      <c r="AX2" s="212"/>
-      <c r="AY2" s="212"/>
-      <c r="AZ2" s="212"/>
-      <c r="BA2" s="212"/>
-      <c r="BB2" s="212"/>
-      <c r="BC2" s="212"/>
-      <c r="BD2" s="212"/>
-      <c r="BE2" s="212"/>
-      <c r="BF2" s="212"/>
-      <c r="BG2" s="212"/>
-      <c r="BH2" s="212"/>
-      <c r="BI2" s="212"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
+      <c r="AC2" s="185"/>
+      <c r="AD2" s="185"/>
+      <c r="AE2" s="185"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="185"/>
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="185"/>
+      <c r="AJ2" s="185"/>
+      <c r="AK2" s="185"/>
+      <c r="AL2" s="185"/>
+      <c r="AM2" s="185"/>
+      <c r="AN2" s="185"/>
+      <c r="AO2" s="185"/>
+      <c r="AP2" s="185"/>
+      <c r="AQ2" s="185"/>
+      <c r="AR2" s="185"/>
+      <c r="AS2" s="185"/>
+      <c r="AT2" s="185"/>
+      <c r="AU2" s="185"/>
+      <c r="AV2" s="185"/>
+      <c r="AW2" s="185"/>
+      <c r="AX2" s="185"/>
+      <c r="AY2" s="185"/>
+      <c r="AZ2" s="185"/>
+      <c r="BA2" s="185"/>
+      <c r="BB2" s="185"/>
+      <c r="BC2" s="185"/>
+      <c r="BD2" s="185"/>
+      <c r="BE2" s="185"/>
+      <c r="BF2" s="185"/>
+      <c r="BG2" s="185"/>
+      <c r="BH2" s="185"/>
+      <c r="BI2" s="185"/>
     </row>
     <row r="3" spans="1:61" ht="15" customHeight="1">
-      <c r="A3" s="212"/>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="212"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="212"/>
-      <c r="AA3" s="212"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="212"/>
-      <c r="AD3" s="212"/>
-      <c r="AE3" s="212"/>
-      <c r="AF3" s="212"/>
-      <c r="AG3" s="212"/>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="212"/>
-      <c r="AJ3" s="212"/>
-      <c r="AK3" s="212"/>
-      <c r="AL3" s="212"/>
-      <c r="AM3" s="212"/>
-      <c r="AN3" s="212"/>
-      <c r="AO3" s="212"/>
-      <c r="AP3" s="212"/>
-      <c r="AQ3" s="212"/>
-      <c r="AR3" s="212"/>
-      <c r="AS3" s="212"/>
-      <c r="AT3" s="212"/>
-      <c r="AU3" s="212"/>
-      <c r="AV3" s="212"/>
-      <c r="AW3" s="212"/>
-      <c r="AX3" s="212"/>
-      <c r="AY3" s="212"/>
-      <c r="AZ3" s="212"/>
-      <c r="BA3" s="212"/>
-      <c r="BB3" s="212"/>
-      <c r="BC3" s="212"/>
-      <c r="BD3" s="212"/>
-      <c r="BE3" s="212"/>
-      <c r="BF3" s="212"/>
-      <c r="BG3" s="212"/>
-      <c r="BH3" s="212"/>
-      <c r="BI3" s="212"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="185"/>
+      <c r="U3" s="185"/>
+      <c r="V3" s="185"/>
+      <c r="W3" s="185"/>
+      <c r="X3" s="185"/>
+      <c r="Y3" s="185"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="185"/>
+      <c r="AB3" s="185"/>
+      <c r="AC3" s="185"/>
+      <c r="AD3" s="185"/>
+      <c r="AE3" s="185"/>
+      <c r="AF3" s="185"/>
+      <c r="AG3" s="185"/>
+      <c r="AH3" s="185"/>
+      <c r="AI3" s="185"/>
+      <c r="AJ3" s="185"/>
+      <c r="AK3" s="185"/>
+      <c r="AL3" s="185"/>
+      <c r="AM3" s="185"/>
+      <c r="AN3" s="185"/>
+      <c r="AO3" s="185"/>
+      <c r="AP3" s="185"/>
+      <c r="AQ3" s="185"/>
+      <c r="AR3" s="185"/>
+      <c r="AS3" s="185"/>
+      <c r="AT3" s="185"/>
+      <c r="AU3" s="185"/>
+      <c r="AV3" s="185"/>
+      <c r="AW3" s="185"/>
+      <c r="AX3" s="185"/>
+      <c r="AY3" s="185"/>
+      <c r="AZ3" s="185"/>
+      <c r="BA3" s="185"/>
+      <c r="BB3" s="185"/>
+      <c r="BC3" s="185"/>
+      <c r="BD3" s="185"/>
+      <c r="BE3" s="185"/>
+      <c r="BF3" s="185"/>
+      <c r="BG3" s="185"/>
+      <c r="BH3" s="185"/>
+      <c r="BI3" s="185"/>
     </row>
     <row r="4" spans="1:61" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:61" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="191" t="s">
+      <c r="C5" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="192" t="s">
+      <c r="D5" s="206" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="193"/>
-      <c r="L5" s="193"/>
-      <c r="M5" s="193"/>
-      <c r="N5" s="193"/>
-      <c r="O5" s="193"/>
-      <c r="P5" s="193"/>
-      <c r="Q5" s="193"/>
-      <c r="R5" s="193"/>
-      <c r="S5" s="193"/>
-      <c r="T5" s="193"/>
-      <c r="U5" s="193"/>
-      <c r="V5" s="193"/>
-      <c r="W5" s="193"/>
-      <c r="X5" s="193"/>
-      <c r="Y5" s="193"/>
-      <c r="Z5" s="193"/>
-      <c r="AA5" s="193"/>
-      <c r="AB5" s="193"/>
-      <c r="AC5" s="193"/>
-      <c r="AD5" s="193"/>
-      <c r="AE5" s="193"/>
-      <c r="AF5" s="193"/>
-      <c r="AG5" s="193"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="193"/>
-      <c r="AJ5" s="193"/>
-      <c r="AK5" s="193"/>
-      <c r="AL5" s="193"/>
-      <c r="AM5" s="193"/>
-      <c r="AN5" s="193"/>
-      <c r="AO5" s="193"/>
-      <c r="AP5" s="193"/>
-      <c r="AQ5" s="193"/>
-      <c r="AR5" s="193"/>
-      <c r="AS5" s="193"/>
-      <c r="AT5" s="193"/>
-      <c r="AU5" s="193"/>
-      <c r="AV5" s="193"/>
-      <c r="AW5" s="193"/>
-      <c r="AX5" s="193"/>
-      <c r="AY5" s="193"/>
-      <c r="AZ5" s="193"/>
-      <c r="BA5" s="193"/>
-      <c r="BB5" s="193"/>
-      <c r="BC5" s="193"/>
-      <c r="BD5" s="194"/>
-      <c r="BE5" s="195" t="s">
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="207"/>
+      <c r="K5" s="207"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
+      <c r="O5" s="207"/>
+      <c r="P5" s="207"/>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="207"/>
+      <c r="S5" s="207"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="207"/>
+      <c r="V5" s="207"/>
+      <c r="W5" s="207"/>
+      <c r="X5" s="207"/>
+      <c r="Y5" s="207"/>
+      <c r="Z5" s="207"/>
+      <c r="AA5" s="207"/>
+      <c r="AB5" s="207"/>
+      <c r="AC5" s="207"/>
+      <c r="AD5" s="207"/>
+      <c r="AE5" s="207"/>
+      <c r="AF5" s="207"/>
+      <c r="AG5" s="207"/>
+      <c r="AH5" s="207"/>
+      <c r="AI5" s="207"/>
+      <c r="AJ5" s="207"/>
+      <c r="AK5" s="207"/>
+      <c r="AL5" s="207"/>
+      <c r="AM5" s="207"/>
+      <c r="AN5" s="207"/>
+      <c r="AO5" s="207"/>
+      <c r="AP5" s="207"/>
+      <c r="AQ5" s="207"/>
+      <c r="AR5" s="207"/>
+      <c r="AS5" s="207"/>
+      <c r="AT5" s="207"/>
+      <c r="AU5" s="207"/>
+      <c r="AV5" s="207"/>
+      <c r="AW5" s="207"/>
+      <c r="AX5" s="207"/>
+      <c r="AY5" s="207"/>
+      <c r="AZ5" s="207"/>
+      <c r="BA5" s="207"/>
+      <c r="BB5" s="207"/>
+      <c r="BC5" s="207"/>
+      <c r="BD5" s="208"/>
+      <c r="BE5" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="BF5" s="196"/>
-      <c r="BG5" s="184" t="s">
+      <c r="BF5" s="210"/>
+      <c r="BG5" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="BH5" s="185"/>
-      <c r="BI5" s="186"/>
+      <c r="BH5" s="200"/>
+      <c r="BI5" s="201"/>
     </row>
     <row r="6" spans="1:61" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="189"/>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="213" t="s">
+      <c r="A6" s="203"/>
+      <c r="B6" s="205"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="209" t="s">
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="209"/>
-      <c r="L6" s="209"/>
-      <c r="M6" s="209"/>
-      <c r="N6" s="209"/>
-      <c r="O6" s="209"/>
-      <c r="P6" s="209"/>
-      <c r="Q6" s="209"/>
-      <c r="R6" s="209"/>
-      <c r="S6" s="209"/>
-      <c r="T6" s="209"/>
-      <c r="U6" s="209"/>
-      <c r="V6" s="209"/>
-      <c r="W6" s="209"/>
-      <c r="X6" s="209"/>
-      <c r="Y6" s="209"/>
-      <c r="Z6" s="209"/>
-      <c r="AA6" s="209"/>
-      <c r="AB6" s="209"/>
-      <c r="AC6" s="209"/>
-      <c r="AD6" s="209"/>
-      <c r="AE6" s="209"/>
-      <c r="AF6" s="209"/>
-      <c r="AG6" s="209"/>
-      <c r="AH6" s="209"/>
-      <c r="AI6" s="209"/>
-      <c r="AJ6" s="209"/>
-      <c r="AK6" s="209"/>
-      <c r="AL6" s="209"/>
-      <c r="AM6" s="209"/>
-      <c r="AN6" s="209"/>
-      <c r="AO6" s="209" t="s">
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="189"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="189"/>
+      <c r="Q6" s="189"/>
+      <c r="R6" s="189"/>
+      <c r="S6" s="189"/>
+      <c r="T6" s="189"/>
+      <c r="U6" s="189"/>
+      <c r="V6" s="189"/>
+      <c r="W6" s="189"/>
+      <c r="X6" s="189"/>
+      <c r="Y6" s="189"/>
+      <c r="Z6" s="189"/>
+      <c r="AA6" s="189"/>
+      <c r="AB6" s="189"/>
+      <c r="AC6" s="189"/>
+      <c r="AD6" s="189"/>
+      <c r="AE6" s="189"/>
+      <c r="AF6" s="189"/>
+      <c r="AG6" s="189"/>
+      <c r="AH6" s="189"/>
+      <c r="AI6" s="189"/>
+      <c r="AJ6" s="189"/>
+      <c r="AK6" s="189"/>
+      <c r="AL6" s="189"/>
+      <c r="AM6" s="189"/>
+      <c r="AN6" s="189"/>
+      <c r="AO6" s="189" t="s">
         <v>110</v>
       </c>
-      <c r="AP6" s="209"/>
-      <c r="AQ6" s="209"/>
-      <c r="AR6" s="209"/>
-      <c r="AS6" s="209" t="s">
+      <c r="AP6" s="189"/>
+      <c r="AQ6" s="189"/>
+      <c r="AR6" s="189"/>
+      <c r="AS6" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="AT6" s="209"/>
-      <c r="AU6" s="209"/>
-      <c r="AV6" s="209" t="s">
+      <c r="AT6" s="189"/>
+      <c r="AU6" s="189"/>
+      <c r="AV6" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="AW6" s="209"/>
-      <c r="AX6" s="209"/>
-      <c r="AY6" s="209"/>
-      <c r="AZ6" s="209"/>
-      <c r="BA6" s="209"/>
-      <c r="BB6" s="209"/>
-      <c r="BC6" s="205" t="s">
+      <c r="AW6" s="189"/>
+      <c r="AX6" s="189"/>
+      <c r="AY6" s="189"/>
+      <c r="AZ6" s="189"/>
+      <c r="BA6" s="189"/>
+      <c r="BB6" s="189"/>
+      <c r="BC6" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="BD6" s="206"/>
-      <c r="BE6" s="207" t="s">
+      <c r="BD6" s="192"/>
+      <c r="BE6" s="193" t="s">
         <v>119</v>
       </c>
-      <c r="BF6" s="208"/>
-      <c r="BG6" s="187" t="s">
+      <c r="BF6" s="194"/>
+      <c r="BG6" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="BH6" s="187" t="s">
+      <c r="BH6" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="BI6" s="201" t="s">
+      <c r="BI6" s="212" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:61" ht="15.75" thickBot="1">
-      <c r="A7" s="189"/>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="205"/>
+      <c r="C7" s="205"/>
       <c r="E7" s="86"/>
       <c r="F7" s="91">
         <v>0.3</v>
@@ -6347,201 +6347,201 @@
       <c r="I7" s="91">
         <v>0.3</v>
       </c>
-      <c r="J7" s="199"/>
-      <c r="K7" s="199"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="199"/>
-      <c r="P7" s="199"/>
-      <c r="Q7" s="199"/>
-      <c r="R7" s="199"/>
-      <c r="S7" s="199"/>
-      <c r="T7" s="204"/>
-      <c r="U7" s="204"/>
-      <c r="V7" s="199"/>
-      <c r="W7" s="199"/>
-      <c r="X7" s="199"/>
-      <c r="Y7" s="199"/>
-      <c r="Z7" s="199"/>
-      <c r="AA7" s="199"/>
-      <c r="AB7" s="199"/>
-      <c r="AC7" s="199"/>
-      <c r="AD7" s="199"/>
-      <c r="AE7" s="199"/>
-      <c r="AF7" s="199"/>
-      <c r="AG7" s="199"/>
-      <c r="AH7" s="199"/>
-      <c r="AI7" s="199"/>
-      <c r="AJ7" s="199"/>
-      <c r="AK7" s="199"/>
-      <c r="AL7" s="200">
+      <c r="J7" s="188"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="188"/>
+      <c r="O7" s="188"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="188"/>
+      <c r="R7" s="188"/>
+      <c r="S7" s="188"/>
+      <c r="T7" s="198"/>
+      <c r="U7" s="198"/>
+      <c r="V7" s="188"/>
+      <c r="W7" s="188"/>
+      <c r="X7" s="188"/>
+      <c r="Y7" s="188"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="188"/>
+      <c r="AC7" s="188"/>
+      <c r="AD7" s="188"/>
+      <c r="AE7" s="188"/>
+      <c r="AF7" s="188"/>
+      <c r="AG7" s="188"/>
+      <c r="AH7" s="188"/>
+      <c r="AI7" s="188"/>
+      <c r="AJ7" s="188"/>
+      <c r="AK7" s="188"/>
+      <c r="AL7" s="190">
         <f>COUNT(AJ9,AH9,AF9,AD9,Z9,V9,T9,P9,N9,L9,J9,X9)</f>
         <v>4</v>
       </c>
-      <c r="AM7" s="200"/>
+      <c r="AM7" s="190"/>
       <c r="AN7" s="92">
         <v>0.1</v>
       </c>
-      <c r="AO7" s="199" t="s">
+      <c r="AO7" s="188" t="s">
         <v>264</v>
       </c>
-      <c r="AP7" s="199"/>
-      <c r="AQ7" s="199" t="s">
+      <c r="AP7" s="188"/>
+      <c r="AQ7" s="188" t="s">
         <v>266</v>
       </c>
-      <c r="AR7" s="199"/>
-      <c r="AS7" s="200">
+      <c r="AR7" s="188"/>
+      <c r="AS7" s="190">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>2</v>
       </c>
-      <c r="AT7" s="200"/>
+      <c r="AT7" s="190"/>
       <c r="AU7" s="85">
         <v>0.05</v>
       </c>
-      <c r="AV7" s="199" t="s">
+      <c r="AV7" s="188" t="s">
         <v>265</v>
       </c>
-      <c r="AW7" s="199"/>
-      <c r="AX7" s="199"/>
-      <c r="AY7" s="199"/>
-      <c r="AZ7" s="200">
+      <c r="AW7" s="188"/>
+      <c r="AX7" s="188"/>
+      <c r="AY7" s="188"/>
+      <c r="AZ7" s="190">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="200"/>
+      <c r="BA7" s="190"/>
       <c r="BB7" s="16">
         <v>0.2</v>
       </c>
-      <c r="BC7" s="205"/>
-      <c r="BD7" s="206"/>
-      <c r="BE7" s="199"/>
-      <c r="BF7" s="199"/>
-      <c r="BG7" s="187"/>
-      <c r="BH7" s="187"/>
-      <c r="BI7" s="202"/>
+      <c r="BC7" s="191"/>
+      <c r="BD7" s="192"/>
+      <c r="BE7" s="188"/>
+      <c r="BF7" s="188"/>
+      <c r="BG7" s="195"/>
+      <c r="BH7" s="195"/>
+      <c r="BI7" s="213"/>
     </row>
     <row r="8" spans="1:61" ht="15.75" thickBot="1">
-      <c r="A8" s="189"/>
-      <c r="B8" s="191"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="197" t="s">
+      <c r="A8" s="203"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="211" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="197" t="s">
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="197"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198" t="s">
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198" t="s">
+      <c r="K8" s="184"/>
+      <c r="L8" s="184" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="198"/>
-      <c r="N8" s="198" t="s">
+      <c r="M8" s="184"/>
+      <c r="N8" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="198"/>
-      <c r="P8" s="198" t="s">
+      <c r="O8" s="184"/>
+      <c r="P8" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="198"/>
-      <c r="R8" s="198" t="s">
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="198"/>
-      <c r="T8" s="198" t="s">
+      <c r="S8" s="184"/>
+      <c r="T8" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="198"/>
-      <c r="V8" s="198" t="s">
+      <c r="U8" s="184"/>
+      <c r="V8" s="184" t="s">
         <v>47</v>
       </c>
-      <c r="W8" s="198"/>
-      <c r="X8" s="198" t="s">
+      <c r="W8" s="184"/>
+      <c r="X8" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="Y8" s="198"/>
-      <c r="Z8" s="198" t="s">
+      <c r="Y8" s="184"/>
+      <c r="Z8" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="AA8" s="198"/>
-      <c r="AB8" s="198" t="s">
+      <c r="AA8" s="184"/>
+      <c r="AB8" s="184" t="s">
         <v>50</v>
       </c>
-      <c r="AC8" s="198"/>
-      <c r="AD8" s="198" t="s">
+      <c r="AC8" s="184"/>
+      <c r="AD8" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="AE8" s="198"/>
-      <c r="AF8" s="198" t="s">
+      <c r="AE8" s="184"/>
+      <c r="AF8" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="AG8" s="198"/>
-      <c r="AH8" s="198" t="s">
+      <c r="AG8" s="184"/>
+      <c r="AH8" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="AI8" s="198"/>
-      <c r="AJ8" s="198" t="s">
+      <c r="AI8" s="184"/>
+      <c r="AJ8" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="AK8" s="198"/>
-      <c r="AL8" s="198" t="s">
+      <c r="AK8" s="184"/>
+      <c r="AL8" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="AM8" s="198"/>
+      <c r="AM8" s="184"/>
       <c r="AN8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AO8" s="198" t="s">
+      <c r="AO8" s="184" t="s">
         <v>57</v>
       </c>
-      <c r="AP8" s="198"/>
-      <c r="AQ8" s="198" t="s">
+      <c r="AP8" s="184"/>
+      <c r="AQ8" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="AR8" s="198"/>
-      <c r="AS8" s="198" t="s">
+      <c r="AR8" s="184"/>
+      <c r="AS8" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="AT8" s="198"/>
+      <c r="AT8" s="184"/>
       <c r="AU8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AV8" s="198" t="s">
+      <c r="AV8" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="AW8" s="198"/>
-      <c r="AX8" s="198" t="s">
+      <c r="AW8" s="184"/>
+      <c r="AX8" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="AY8" s="198"/>
-      <c r="AZ8" s="198" t="s">
+      <c r="AY8" s="184"/>
+      <c r="AZ8" s="184" t="s">
         <v>63</v>
       </c>
-      <c r="BA8" s="198"/>
+      <c r="BA8" s="184"/>
       <c r="BB8" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="BC8" s="205"/>
-      <c r="BD8" s="206"/>
-      <c r="BE8" s="210" t="s">
+      <c r="BC8" s="191"/>
+      <c r="BD8" s="192"/>
+      <c r="BE8" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="BF8" s="211"/>
-      <c r="BG8" s="187"/>
-      <c r="BH8" s="187"/>
-      <c r="BI8" s="202"/>
+      <c r="BF8" s="197"/>
+      <c r="BG8" s="195"/>
+      <c r="BH8" s="195"/>
+      <c r="BI8" s="213"/>
     </row>
     <row r="9" spans="1:61" ht="15.75" thickBot="1">
-      <c r="A9" s="190"/>
-      <c r="B9" s="191"/>
-      <c r="C9" s="191"/>
+      <c r="A9" s="204"/>
+      <c r="B9" s="205"/>
+      <c r="C9" s="205"/>
       <c r="D9" s="20">
         <v>50</v>
       </c>
@@ -6631,9 +6631,9 @@
       <c r="BF9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="BG9" s="187"/>
-      <c r="BH9" s="187"/>
-      <c r="BI9" s="203"/>
+      <c r="BG9" s="195"/>
+      <c r="BH9" s="195"/>
+      <c r="BI9" s="214"/>
     </row>
     <row r="10" spans="1:61">
       <c r="A10" s="34">
@@ -9945,14 +9945,16 @@
         <f t="shared" si="0"/>
         <v>24.599999999999998</v>
       </c>
-      <c r="G31" s="84"/>
+      <c r="G31" s="84">
+        <v>63</v>
+      </c>
       <c r="H31" s="73">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I31" s="76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J31" s="84"/>
       <c r="K31" s="73">
@@ -10010,15 +10012,19 @@
         <f t="shared" si="9"/>
         <v>4.3</v>
       </c>
-      <c r="AO31" s="84"/>
+      <c r="AO31" s="84">
+        <v>100</v>
+      </c>
       <c r="AP31" s="73">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="84"/>
+        <v>100</v>
+      </c>
+      <c r="AQ31" s="84">
+        <v>100</v>
+      </c>
       <c r="AR31" s="73">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AS31" s="84"/>
       <c r="AT31" s="73" t="str">
@@ -10027,7 +10033,7 @@
       </c>
       <c r="AU31" s="76">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV31" s="84"/>
       <c r="AW31" s="73">
@@ -10050,11 +10056,11 @@
       </c>
       <c r="BC31" s="78">
         <f t="shared" si="18"/>
-        <v>28.9</v>
+        <v>60.899999999999991</v>
       </c>
       <c r="BD31" s="78">
         <f t="shared" si="19"/>
-        <v>28.9</v>
+        <v>60.9</v>
       </c>
       <c r="BE31" s="84"/>
       <c r="BF31" s="73" t="str">
@@ -10063,7 +10069,7 @@
       </c>
       <c r="BG31" s="82">
         <f t="shared" si="21"/>
-        <v>28.9</v>
+        <v>60.899999999999991</v>
       </c>
       <c r="BH31" s="82">
         <f>IFERROR(VLOOKUP(BG31,REGISTRATION!$Q$22:$R$32,2),"")</f>
@@ -15824,6 +15830,52 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="62">
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BG6:BG9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BI6:BI9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="BH6:BH9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
     <mergeCell ref="AX8:AY8"/>
     <mergeCell ref="A2:BI3"/>
@@ -15840,52 +15892,6 @@
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="BH6:BH9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BG6:BG9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BI6:BI9"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <conditionalFormatting sqref="BI10:BI70">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -17146,7 +17152,7 @@
       </c>
       <c r="D34" s="70">
         <f>'RAW GRADES'!I31</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E34" s="44">
         <f>'RAW GRADES'!AN31</f>
@@ -17154,7 +17160,7 @@
       </c>
       <c r="F34" s="44">
         <f>'RAW GRADES'!AU31</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34" s="44">
         <f>'RAW GRADES'!BB31</f>
@@ -17162,15 +17168,15 @@
       </c>
       <c r="H34" s="45">
         <f>'RAW GRADES'!BC31</f>
-        <v>28.9</v>
+        <v>60.899999999999991</v>
       </c>
       <c r="I34" s="45">
         <f>'RAW GRADES'!BD31</f>
-        <v>28.9</v>
+        <v>60.9</v>
       </c>
       <c r="J34" s="49">
         <f>'RAW GRADES'!BG31</f>
-        <v>28.9</v>
+        <v>60.899999999999991</v>
       </c>
       <c r="K34" s="47">
         <f>'RAW GRADES'!BH31</f>
@@ -19187,106 +19193,106 @@
       <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="231"/>
-      <c r="B3" s="231"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
+      <c r="A3" s="234"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="248" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="232"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="233" t="s">
+      <c r="A5" s="249" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
+      <c r="B5" s="249"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="232" t="s">
+      <c r="A6" s="248" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="232"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="234" t="s">
+      <c r="A7" s="250" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="234"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234"/>
+      <c r="B7" s="250"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="250"/>
+      <c r="E7" s="250"/>
+      <c r="F7" s="250"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="235"/>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
+      <c r="A8" s="251"/>
+      <c r="B8" s="251"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="251"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="251"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="231"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
+      <c r="A9" s="234"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="236"/>
-      <c r="B10" s="236"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="A10" s="252"/>
+      <c r="B10" s="252"/>
+      <c r="C10" s="252"/>
+      <c r="D10" s="252"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="252"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="237" t="s">
+      <c r="A11" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="237"/>
-      <c r="C11" s="237"/>
-      <c r="D11" s="237"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="237"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="253"/>
+      <c r="D11" s="253"/>
+      <c r="E11" s="253"/>
+      <c r="F11" s="253"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="235"/>
-      <c r="B12" s="235"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
+      <c r="A12" s="251"/>
+      <c r="B12" s="251"/>
+      <c r="C12" s="251"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="251"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="51"/>
       <c r="B13" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="238" t="str">
+      <c r="C13" s="254" t="str">
         <f>UPPER(REGISTRATION!C7)</f>
         <v>DCIT 23</v>
       </c>
-      <c r="D13" s="238"/>
-      <c r="E13" s="238"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="254"/>
       <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:6">
@@ -19294,12 +19300,12 @@
       <c r="B14" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="230" t="str">
+      <c r="C14" s="247" t="str">
         <f>UPPER(REGISTRATION!C6)</f>
         <v>DISCRETE STRUCTURE</v>
       </c>
-      <c r="D14" s="230"/>
-      <c r="E14" s="230"/>
+      <c r="D14" s="247"/>
+      <c r="E14" s="247"/>
       <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:6" ht="15.75">
@@ -19307,12 +19313,12 @@
       <c r="B15" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="239" t="str">
+      <c r="C15" s="238" t="str">
         <f>UPPER(REGISTRATION!D8)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
       <c r="F15" s="54"/>
     </row>
     <row r="16" spans="1:6">
@@ -19320,12 +19326,12 @@
       <c r="B16" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="240" t="str">
+      <c r="C16" s="239" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!E8))</f>
         <v>BSCS A</v>
       </c>
-      <c r="D16" s="240"/>
-      <c r="E16" s="240"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="239"/>
       <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6">
@@ -19333,12 +19339,12 @@
       <c r="B17" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="240" t="str">
+      <c r="C17" s="239" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!Q13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!Q12))</f>
         <v>SECOND SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="240"/>
-      <c r="E17" s="240"/>
+      <c r="D17" s="239"/>
+      <c r="E17" s="239"/>
       <c r="F17" s="54"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -19350,42 +19356,42 @@
       <c r="F18" s="51"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="241" t="s">
+      <c r="A19" s="230" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="244" t="s">
+      <c r="B19" s="242" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="241" t="s">
+      <c r="C19" s="230" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="241" t="s">
+      <c r="D19" s="230" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="246" t="s">
+      <c r="E19" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="241" t="s">
+      <c r="F19" s="230" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="242"/>
-      <c r="B20" s="245"/>
-      <c r="C20" s="242"/>
-      <c r="D20" s="242"/>
-      <c r="E20" s="247"/>
-      <c r="F20" s="249"/>
+      <c r="A20" s="240"/>
+      <c r="B20" s="243"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="240"/>
+      <c r="E20" s="245"/>
+      <c r="F20" s="231"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="243"/>
+      <c r="A21" s="241"/>
       <c r="B21" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="243"/>
-      <c r="D21" s="243"/>
-      <c r="E21" s="248"/>
-      <c r="F21" s="250"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="232"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="56">
@@ -20513,14 +20519,14 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A67" s="252" t="s">
+      <c r="A67" s="235" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="253"/>
-      <c r="C67" s="253"/>
-      <c r="D67" s="253"/>
-      <c r="E67" s="253"/>
-      <c r="F67" s="254"/>
+      <c r="B67" s="236"/>
+      <c r="C67" s="236"/>
+      <c r="D67" s="236"/>
+      <c r="E67" s="236"/>
+      <c r="F67" s="237"/>
     </row>
     <row r="68" spans="1:6" ht="15.75">
       <c r="A68" s="53"/>
@@ -20553,11 +20559,11 @@
       </c>
       <c r="C71" s="51"/>
       <c r="D71" s="51"/>
-      <c r="E71" s="251">
+      <c r="E71" s="233">
         <f ca="1">NOW()</f>
-        <v>43229.320643287036</v>
-      </c>
-      <c r="F71" s="251"/>
+        <v>43241.549092939815</v>
+      </c>
+      <c r="F71" s="233"/>
     </row>
     <row r="72" spans="1:6" ht="15.75">
       <c r="A72" s="51"/>
@@ -20567,10 +20573,10 @@
       </c>
       <c r="C72" s="64"/>
       <c r="D72" s="64"/>
-      <c r="E72" s="231" t="s">
+      <c r="E72" s="234" t="s">
         <v>91</v>
       </c>
-      <c r="F72" s="231"/>
+      <c r="F72" s="234"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="51"/>
@@ -20587,8 +20593,8 @@
       <c r="B74" s="65"/>
       <c r="C74" s="65"/>
       <c r="D74" s="65"/>
-      <c r="E74" s="231"/>
-      <c r="F74" s="231"/>
+      <c r="E74" s="234"/>
+      <c r="F74" s="234"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="51"/>
@@ -20706,19 +20712,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="25">
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -20731,6 +20724,19 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="A67:F67"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F66">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
@@ -20744,7 +20750,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" scale="59" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="256" scale="55" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="74" max="16383" man="1"/>
     <brk id="83" max="16383" man="1"/>
@@ -20770,14 +20776,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="15.75">
-      <c r="B4" s="259" t="s">
+      <c r="B4" s="271" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
+      <c r="C4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1">
       <c r="B5" s="51"/>
@@ -20788,130 +20794,130 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" thickBot="1">
-      <c r="B6" s="262" t="s">
+      <c r="B6" s="272" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="261"/>
-      <c r="D6" s="260" t="s">
+      <c r="C6" s="256"/>
+      <c r="D6" s="255" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="261"/>
-      <c r="F6" s="260" t="s">
+      <c r="E6" s="256"/>
+      <c r="F6" s="255" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="261"/>
+      <c r="G6" s="256"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="263" t="s">
+      <c r="B7" s="273" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="264"/>
-      <c r="D7" s="265">
+      <c r="C7" s="274"/>
+      <c r="D7" s="275">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$66,"=1.0")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$66,"=1.25")+(COUNTIF('SEMESTRAL GRADE'!$D$22:$D$66,"=1.50")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$66,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="E7" s="266"/>
-      <c r="F7" s="267">
+      <c r="E7" s="276"/>
+      <c r="F7" s="277">
         <f t="shared" ref="F7:F12" si="0">(D7/$D$13)*100</f>
         <v>0</v>
       </c>
-      <c r="G7" s="268"/>
+      <c r="G7" s="278"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="255" t="s">
+      <c r="B8" s="267" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="256"/>
-      <c r="D8" s="269">
+      <c r="C8" s="268"/>
+      <c r="D8" s="261">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$66,"=2.0")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$66,"=2.25")+(COUNTIF('SEMESTRAL GRADE'!$D$22:$D$66,"=2.50")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$66,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="E8" s="270"/>
-      <c r="F8" s="271">
+      <c r="E8" s="262"/>
+      <c r="F8" s="263">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="272"/>
+      <c r="G8" s="264"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="255" t="s">
+      <c r="B9" s="267" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="256"/>
-      <c r="D9" s="269">
+      <c r="C9" s="268"/>
+      <c r="D9" s="261">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$66,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="E9" s="270"/>
-      <c r="F9" s="271">
+      <c r="E9" s="262"/>
+      <c r="F9" s="263">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="272"/>
+      <c r="G9" s="264"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="255" t="s">
+      <c r="B10" s="267" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="256"/>
-      <c r="D10" s="269">
+      <c r="C10" s="268"/>
+      <c r="D10" s="261">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$66,"=5.0")</f>
         <v>45</v>
       </c>
-      <c r="E10" s="270"/>
-      <c r="F10" s="271">
+      <c r="E10" s="262"/>
+      <c r="F10" s="263">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G10" s="272"/>
+      <c r="G10" s="264"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="255" t="s">
+      <c r="B11" s="267" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="256"/>
-      <c r="D11" s="277">
+      <c r="C11" s="268"/>
+      <c r="D11" s="265">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$66,"=INC")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="278"/>
-      <c r="F11" s="271">
+      <c r="E11" s="266"/>
+      <c r="F11" s="263">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="272"/>
+      <c r="G11" s="264"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="255" t="s">
+      <c r="B12" s="267" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="256"/>
-      <c r="D12" s="277">
+      <c r="C12" s="268"/>
+      <c r="D12" s="265">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$66,"=drp")</f>
         <v>0</v>
       </c>
-      <c r="E12" s="278"/>
-      <c r="F12" s="271">
+      <c r="E12" s="266"/>
+      <c r="F12" s="263">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="272"/>
+      <c r="G12" s="264"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="257" t="s">
+      <c r="B13" s="269" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="258"/>
-      <c r="D13" s="273">
+      <c r="C13" s="270"/>
+      <c r="D13" s="257">
         <f>SUM(D7:E12)</f>
         <v>45</v>
       </c>
-      <c r="E13" s="274"/>
-      <c r="F13" s="275">
+      <c r="E13" s="258"/>
+      <c r="F13" s="259">
         <f>SUM(F7:G12)</f>
         <v>100</v>
       </c>
-      <c r="G13" s="276"/>
+      <c r="G13" s="260"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="51"/>
@@ -21080,15 +21086,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="25">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -21105,6 +21102,15 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -21206,80 +21212,80 @@
       <c r="J6" s="103"/>
     </row>
     <row r="7" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A7" s="293" t="s">
+      <c r="A7" s="279" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="294"/>
-      <c r="C7" s="294"/>
-      <c r="D7" s="294"/>
-      <c r="E7" s="294"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="294"/>
-      <c r="H7" s="294"/>
-      <c r="I7" s="294"/>
-      <c r="J7" s="295"/>
+      <c r="B7" s="280"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="280"/>
+      <c r="J7" s="281"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A8" s="296" t="str">
+      <c r="A8" s="282" t="str">
         <f>UPPER(REGISTRATION!Q18)</f>
         <v>DEPARTMENT OF INFORMATION TECHNOLOGY</v>
       </c>
-      <c r="B8" s="297"/>
-      <c r="C8" s="297"/>
-      <c r="D8" s="297"/>
-      <c r="E8" s="297"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="297" t="str">
+      <c r="B8" s="283"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="283" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!Q13,"SEMESTER"," ","A.Y."," ",REGISTRATION!Q12))</f>
         <v>SECONDSEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="H8" s="297"/>
-      <c r="I8" s="297"/>
-      <c r="J8" s="298"/>
+      <c r="H8" s="283"/>
+      <c r="I8" s="283"/>
+      <c r="J8" s="284"/>
     </row>
     <row r="9" spans="1:15" ht="20.25">
-      <c r="A9" s="299" t="s">
+      <c r="A9" s="285" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="300"/>
-      <c r="C9" s="301" t="str">
+      <c r="B9" s="286"/>
+      <c r="C9" s="287" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C7," - ",REGISTRATION!C6))</f>
         <v>DCIT 23 - DISCRETE STRUCTURE</v>
       </c>
-      <c r="D9" s="301"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="300" t="s">
+      <c r="D9" s="287"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
+      <c r="G9" s="286" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="300"/>
-      <c r="I9" s="302" t="str">
+      <c r="H9" s="286"/>
+      <c r="I9" s="288" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ", REGISTRATION!D8,REGISTRATION!E8))</f>
         <v>BSCS 1A</v>
       </c>
-      <c r="J9" s="303"/>
+      <c r="J9" s="289"/>
     </row>
     <row r="10" spans="1:15" ht="21" thickBot="1">
-      <c r="A10" s="279" t="s">
+      <c r="A10" s="290" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="280"/>
-      <c r="C10" s="281" t="str">
+      <c r="B10" s="291"/>
+      <c r="C10" s="292" t="str">
         <f>UPPER(REGISTRATION!Q14)</f>
         <v>GIMEL C. CONTILLO</v>
       </c>
-      <c r="D10" s="281"/>
-      <c r="E10" s="281"/>
-      <c r="F10" s="281"/>
-      <c r="G10" s="280" t="s">
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="291" t="s">
         <v>155</v>
       </c>
-      <c r="H10" s="280"/>
-      <c r="I10" s="282" t="str">
+      <c r="H10" s="291"/>
+      <c r="I10" s="293" t="str">
         <f>CONCATENATE(REGISTRATION!J6," ", REGISTRATION!J7," ", REGISTRATION!J8)</f>
         <v>Wednesday 7AM - 10AM TS Room</v>
       </c>
-      <c r="J10" s="283"/>
+      <c r="J10" s="294"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1">
       <c r="A11" s="100"/>
@@ -21294,33 +21300,33 @@
       <c r="J11" s="101"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A12" s="284"/>
-      <c r="B12" s="286" t="s">
+      <c r="A12" s="295"/>
+      <c r="B12" s="297" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="286" t="s">
+      <c r="C12" s="297" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="286" t="s">
+      <c r="D12" s="297" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="288" t="s">
+      <c r="E12" s="299" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="290" t="s">
+      <c r="F12" s="301" t="s">
         <v>158</v>
       </c>
-      <c r="G12" s="291"/>
-      <c r="H12" s="291"/>
-      <c r="I12" s="291"/>
-      <c r="J12" s="292"/>
+      <c r="G12" s="302"/>
+      <c r="H12" s="302"/>
+      <c r="I12" s="302"/>
+      <c r="J12" s="303"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A13" s="285"/>
-      <c r="B13" s="287"/>
-      <c r="C13" s="287"/>
-      <c r="D13" s="287"/>
-      <c r="E13" s="289"/>
+      <c r="A13" s="296"/>
+      <c r="B13" s="298"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="300"/>
       <c r="F13" s="116">
         <v>43283</v>
       </c>
@@ -22593,13 +22599,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -22610,6 +22609,13 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:J12"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="B14:B58">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">

--- a/DCIT 23 - CS 1A/DCIT 23 - CS 1A.xlsx
+++ b/DCIT 23 - CS 1A/DCIT 23 - CS 1A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\Grading-Sheets-Second-Sem-2017-2018\DCIT 23 - CS 1A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C15A34-F772-4BDC-AFF2-F0BB95E3640F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF812E2-6A3E-4C6A-9ECF-DD10EBB5381D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -2418,6 +2418,176 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2426,175 +2596,109 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2606,102 +2710,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2761,10 +2769,82 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -2777,10 +2857,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2793,72 +2869,36 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2869,6 +2909,50 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2885,22 +2969,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2909,53 +2977,47 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2989,68 +3051,6 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4065,85 +4065,85 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:19">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="148"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="174"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A3" s="149"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="151"/>
+      <c r="A3" s="175"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="177"/>
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A4" s="143"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
+      <c r="A4" s="169"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A5" s="139"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
+      <c r="A5" s="187"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168" t="s">
+      <c r="A6" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="140"/>
+      <c r="C6" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="169" t="s">
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="169"/>
+      <c r="G6" s="142"/>
       <c r="H6" s="1">
         <v>3</v>
       </c>
@@ -4153,18 +4153,18 @@
       <c r="J6" s="111" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="170" t="s">
+      <c r="K6" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="170"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="173"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="3" t="s">
         <v>161</v>
       </c>
@@ -4174,10 +4174,10 @@
       <c r="E7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="174"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="5">
         <v>0</v>
       </c>
@@ -4187,18 +4187,18 @@
       <c r="J7" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K7" s="174" t="s">
+      <c r="K7" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="174"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="175"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="177"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="8" t="s">
         <v>126</v>
       </c>
@@ -4208,10 +4208,10 @@
       <c r="E8" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="178" t="s">
+      <c r="F8" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="178"/>
+      <c r="G8" s="151"/>
       <c r="H8" s="10">
         <f>SUM(H6:H7)</f>
         <v>3</v>
@@ -4222,64 +4222,64 @@
       <c r="J8" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="K8" s="178" t="s">
+      <c r="K8" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="178"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="183" t="s">
+      <c r="C9" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="184" t="s">
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="184" t="s">
+      <c r="H9" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="185"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="157" t="s">
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="158"/>
-      <c r="M9" s="157" t="s">
+      <c r="L9" s="160"/>
+      <c r="M9" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="158"/>
+      <c r="N9" s="160"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A10" s="180"/>
-      <c r="B10" s="182"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="137" t="s">
+      <c r="D10" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="138"/>
+      <c r="E10" s="184"/>
       <c r="F10" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="160"/>
+      <c r="N10" s="160"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="12">
@@ -4299,19 +4299,19 @@
         <v>191</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="161"/>
-      <c r="P11" s="152" t="s">
+      <c r="H11" s="164"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="166"/>
+      <c r="P11" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="154"/>
+      <c r="Q11" s="179"/>
+      <c r="R11" s="179"/>
+      <c r="S11" s="180"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="12">
@@ -4331,21 +4331,21 @@
         <v>208</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="142"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
       <c r="P12" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="144" t="s">
+      <c r="Q12" s="170" t="s">
         <v>163</v>
       </c>
-      <c r="R12" s="144"/>
-      <c r="S12" s="145"/>
+      <c r="R12" s="170"/>
+      <c r="S12" s="171"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="12">
@@ -4365,21 +4365,21 @@
         <v>177</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="142"/>
-      <c r="N13" s="142"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="162"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="163"/>
       <c r="P13" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="144" t="s">
+      <c r="Q13" s="170" t="s">
         <v>164</v>
       </c>
-      <c r="R13" s="144"/>
-      <c r="S13" s="145"/>
+      <c r="R13" s="170"/>
+      <c r="S13" s="171"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="12">
@@ -4397,21 +4397,21 @@
       <c r="E14" s="130"/>
       <c r="F14" s="129"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
       <c r="P14" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="144" t="s">
+      <c r="Q14" s="170" t="s">
         <v>165</v>
       </c>
-      <c r="R14" s="144"/>
-      <c r="S14" s="145"/>
+      <c r="R14" s="170"/>
+      <c r="S14" s="171"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="12">
@@ -4431,21 +4431,21 @@
         <v>191</v>
       </c>
       <c r="G15" s="14"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
       <c r="P15" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="Q15" s="144" t="s">
+      <c r="Q15" s="170" t="s">
         <v>166</v>
       </c>
-      <c r="R15" s="144"/>
-      <c r="S15" s="145"/>
+      <c r="R15" s="170"/>
+      <c r="S15" s="171"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="12">
@@ -4465,21 +4465,21 @@
         <v>221</v>
       </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
       <c r="P16" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="155" t="s">
+      <c r="Q16" s="181" t="s">
         <v>167</v>
       </c>
-      <c r="R16" s="155"/>
-      <c r="S16" s="156"/>
+      <c r="R16" s="181"/>
+      <c r="S16" s="182"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="12">
@@ -4499,21 +4499,21 @@
         <v>221</v>
       </c>
       <c r="G17" s="14"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
       <c r="P17" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="Q17" s="144" t="s">
+      <c r="Q17" s="170" t="s">
         <v>168</v>
       </c>
-      <c r="R17" s="144"/>
-      <c r="S17" s="145"/>
+      <c r="R17" s="170"/>
+      <c r="S17" s="171"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1">
       <c r="A18" s="12">
@@ -4533,21 +4533,21 @@
         <v>203</v>
       </c>
       <c r="G18" s="14"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
       <c r="P18" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="164" t="s">
+      <c r="Q18" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="R18" s="164"/>
-      <c r="S18" s="165"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="138"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="12">
@@ -4567,13 +4567,13 @@
         <v>203</v>
       </c>
       <c r="G19" s="14"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="12">
@@ -4593,13 +4593,13 @@
         <v>177</v>
       </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="163"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="12">
@@ -4619,13 +4619,13 @@
         <v>162</v>
       </c>
       <c r="G21" s="14"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
       <c r="Q21" s="79" t="s">
         <v>111</v>
       </c>
@@ -4648,13 +4648,13 @@
         <v>183</v>
       </c>
       <c r="G22" s="14"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
       <c r="Q22" s="80">
         <v>0</v>
       </c>
@@ -4680,13 +4680,13 @@
         <v>221</v>
       </c>
       <c r="G23" s="14"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="142"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
       <c r="Q23" s="81">
         <v>70</v>
       </c>
@@ -4712,13 +4712,13 @@
         <v>180</v>
       </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="142"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="162"/>
+      <c r="L24" s="162"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
       <c r="Q24" s="81">
         <v>73.34</v>
       </c>
@@ -4744,13 +4744,13 @@
         <v>221</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="142"/>
-      <c r="N25" s="142"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="163"/>
       <c r="Q25" s="81">
         <v>76.680000000000007</v>
       </c>
@@ -4776,13 +4776,13 @@
         <v>183</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="142"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="162"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="163"/>
       <c r="Q26" s="81">
         <v>80.02</v>
       </c>
@@ -4808,13 +4808,13 @@
         <v>194</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="142"/>
-      <c r="N27" s="142"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="162"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
       <c r="Q27" s="81">
         <v>83.36</v>
       </c>
@@ -4840,13 +4840,13 @@
         <v>188</v>
       </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="142"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="162"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="163"/>
       <c r="Q28" s="81">
         <v>86.7</v>
       </c>
@@ -4872,13 +4872,13 @@
         <v>183</v>
       </c>
       <c r="G29" s="14"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="142"/>
-      <c r="N29" s="142"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="162"/>
+      <c r="L29" s="162"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="163"/>
       <c r="Q29" s="81">
         <v>90.04</v>
       </c>
@@ -4904,13 +4904,13 @@
         <v>215</v>
       </c>
       <c r="G30" s="14"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="162"/>
+      <c r="L30" s="162"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="163"/>
       <c r="Q30" s="81">
         <v>93.38</v>
       </c>
@@ -4936,13 +4936,13 @@
         <v>203</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="142"/>
-      <c r="N31" s="142"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="162"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="163"/>
       <c r="Q31" s="80"/>
       <c r="R31" s="80"/>
     </row>
@@ -4964,13 +4964,13 @@
         <v>194</v>
       </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="142"/>
-      <c r="N32" s="142"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="162"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
       <c r="Q32" s="80">
         <v>96.72</v>
       </c>
@@ -4994,13 +4994,13 @@
       <c r="E33" s="124"/>
       <c r="F33" s="121"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
-      <c r="N33" s="142"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="162"/>
+      <c r="L33" s="162"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="163"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="12">
@@ -5020,13 +5020,13 @@
         <v>218</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
-      <c r="N34" s="142"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="162"/>
+      <c r="L34" s="162"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="163"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="12">
@@ -5034,17 +5034,17 @@
       </c>
       <c r="B35" s="114"/>
       <c r="C35" s="114"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="136"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="186"/>
       <c r="F35" s="114"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
-      <c r="N35" s="142"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="161"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="162"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="163"/>
+      <c r="N35" s="163"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="12">
@@ -5052,17 +5052,17 @@
       </c>
       <c r="B36" s="109"/>
       <c r="C36" s="109"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="136"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="186"/>
       <c r="F36" s="109"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="142"/>
-      <c r="N36" s="142"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="163"/>
+      <c r="N36" s="163"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="12">
@@ -5070,17 +5070,17 @@
       </c>
       <c r="B37" s="109"/>
       <c r="C37" s="109"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="136"/>
+      <c r="D37" s="185"/>
+      <c r="E37" s="186"/>
       <c r="F37" s="109"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="142"/>
-      <c r="N37" s="142"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="162"/>
+      <c r="L37" s="162"/>
+      <c r="M37" s="163"/>
+      <c r="N37" s="163"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="12">
@@ -5088,17 +5088,17 @@
       </c>
       <c r="B38" s="114"/>
       <c r="C38" s="114"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="136"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="186"/>
       <c r="F38" s="109"/>
       <c r="G38" s="14"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="140"/>
-      <c r="K38" s="141"/>
-      <c r="L38" s="141"/>
-      <c r="M38" s="142"/>
-      <c r="N38" s="142"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="162"/>
+      <c r="L38" s="162"/>
+      <c r="M38" s="163"/>
+      <c r="N38" s="163"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="12">
@@ -5106,17 +5106,17 @@
       </c>
       <c r="B39" s="109"/>
       <c r="C39" s="109"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="136"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="186"/>
       <c r="F39" s="109"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="140"/>
-      <c r="K39" s="141"/>
-      <c r="L39" s="141"/>
-      <c r="M39" s="142"/>
-      <c r="N39" s="142"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="162"/>
+      <c r="L39" s="162"/>
+      <c r="M39" s="163"/>
+      <c r="N39" s="163"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="12">
@@ -5124,17 +5124,17 @@
       </c>
       <c r="B40" s="109"/>
       <c r="C40" s="109"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="136"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="186"/>
       <c r="F40" s="109"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="141"/>
-      <c r="L40" s="141"/>
-      <c r="M40" s="142"/>
-      <c r="N40" s="142"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="162"/>
+      <c r="L40" s="162"/>
+      <c r="M40" s="163"/>
+      <c r="N40" s="163"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="12">
@@ -5142,17 +5142,17 @@
       </c>
       <c r="B41" s="109"/>
       <c r="C41" s="109"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="136"/>
+      <c r="D41" s="185"/>
+      <c r="E41" s="186"/>
       <c r="F41" s="109"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="141"/>
-      <c r="L41" s="141"/>
-      <c r="M41" s="142"/>
-      <c r="N41" s="142"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="161"/>
+      <c r="K41" s="162"/>
+      <c r="L41" s="162"/>
+      <c r="M41" s="163"/>
+      <c r="N41" s="163"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="12">
@@ -5160,17 +5160,17 @@
       </c>
       <c r="B42" s="109"/>
       <c r="C42" s="109"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="136"/>
+      <c r="D42" s="185"/>
+      <c r="E42" s="186"/>
       <c r="F42" s="109"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="141"/>
-      <c r="L42" s="141"/>
-      <c r="M42" s="142"/>
-      <c r="N42" s="142"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="162"/>
+      <c r="L42" s="162"/>
+      <c r="M42" s="163"/>
+      <c r="N42" s="163"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="12">
@@ -5178,17 +5178,17 @@
       </c>
       <c r="B43" s="109"/>
       <c r="C43" s="113"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="136"/>
+      <c r="D43" s="185"/>
+      <c r="E43" s="186"/>
       <c r="F43" s="109"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="141"/>
-      <c r="L43" s="141"/>
-      <c r="M43" s="142"/>
-      <c r="N43" s="142"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="161"/>
+      <c r="K43" s="162"/>
+      <c r="L43" s="162"/>
+      <c r="M43" s="163"/>
+      <c r="N43" s="163"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="12">
@@ -5196,17 +5196,17 @@
       </c>
       <c r="B44" s="109"/>
       <c r="C44" s="109"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="136"/>
+      <c r="D44" s="185"/>
+      <c r="E44" s="186"/>
       <c r="F44" s="109"/>
       <c r="G44" s="14"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="140"/>
-      <c r="K44" s="141"/>
-      <c r="L44" s="141"/>
-      <c r="M44" s="142"/>
-      <c r="N44" s="142"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="161"/>
+      <c r="K44" s="162"/>
+      <c r="L44" s="162"/>
+      <c r="M44" s="163"/>
+      <c r="N44" s="163"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="12">
@@ -5214,17 +5214,17 @@
       </c>
       <c r="B45" s="109"/>
       <c r="C45" s="109"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="136"/>
+      <c r="D45" s="185"/>
+      <c r="E45" s="186"/>
       <c r="F45" s="109"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
-      <c r="J45" s="140"/>
-      <c r="K45" s="141"/>
-      <c r="L45" s="141"/>
-      <c r="M45" s="142"/>
-      <c r="N45" s="142"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="161"/>
+      <c r="J45" s="161"/>
+      <c r="K45" s="162"/>
+      <c r="L45" s="162"/>
+      <c r="M45" s="163"/>
+      <c r="N45" s="163"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="12">
@@ -5232,17 +5232,17 @@
       </c>
       <c r="B46" s="115"/>
       <c r="C46" s="109"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="136"/>
+      <c r="D46" s="185"/>
+      <c r="E46" s="186"/>
       <c r="F46" s="109"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="140"/>
-      <c r="K46" s="141"/>
-      <c r="L46" s="141"/>
-      <c r="M46" s="142"/>
-      <c r="N46" s="142"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="161"/>
+      <c r="J46" s="161"/>
+      <c r="K46" s="162"/>
+      <c r="L46" s="162"/>
+      <c r="M46" s="163"/>
+      <c r="N46" s="163"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="12">
@@ -5250,17 +5250,17 @@
       </c>
       <c r="B47" s="115"/>
       <c r="C47" s="109"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="136"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="186"/>
       <c r="F47" s="109"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="140"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="141"/>
-      <c r="L47" s="141"/>
-      <c r="M47" s="142"/>
-      <c r="N47" s="142"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="161"/>
+      <c r="J47" s="161"/>
+      <c r="K47" s="162"/>
+      <c r="L47" s="162"/>
+      <c r="M47" s="163"/>
+      <c r="N47" s="163"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="12">
@@ -5268,17 +5268,17 @@
       </c>
       <c r="B48" s="109"/>
       <c r="C48" s="109"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="136"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="186"/>
       <c r="F48" s="109"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="140"/>
-      <c r="J48" s="140"/>
-      <c r="K48" s="141"/>
-      <c r="L48" s="141"/>
-      <c r="M48" s="142"/>
-      <c r="N48" s="142"/>
+      <c r="H48" s="161"/>
+      <c r="I48" s="161"/>
+      <c r="J48" s="161"/>
+      <c r="K48" s="162"/>
+      <c r="L48" s="162"/>
+      <c r="M48" s="163"/>
+      <c r="N48" s="163"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="12">
@@ -5286,17 +5286,17 @@
       </c>
       <c r="B49" s="109"/>
       <c r="C49" s="109"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="136"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="186"/>
       <c r="F49" s="109"/>
       <c r="G49" s="14"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="141"/>
-      <c r="L49" s="141"/>
-      <c r="M49" s="142"/>
-      <c r="N49" s="142"/>
+      <c r="H49" s="161"/>
+      <c r="I49" s="161"/>
+      <c r="J49" s="161"/>
+      <c r="K49" s="162"/>
+      <c r="L49" s="162"/>
+      <c r="M49" s="163"/>
+      <c r="N49" s="163"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="12">
@@ -5304,17 +5304,17 @@
       </c>
       <c r="B50" s="109"/>
       <c r="C50" s="109"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="136"/>
+      <c r="D50" s="185"/>
+      <c r="E50" s="186"/>
       <c r="F50" s="109"/>
       <c r="G50" s="14"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="140"/>
-      <c r="K50" s="141"/>
-      <c r="L50" s="141"/>
-      <c r="M50" s="142"/>
-      <c r="N50" s="142"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="161"/>
+      <c r="J50" s="161"/>
+      <c r="K50" s="162"/>
+      <c r="L50" s="162"/>
+      <c r="M50" s="163"/>
+      <c r="N50" s="163"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="12">
@@ -5322,17 +5322,17 @@
       </c>
       <c r="B51" s="109"/>
       <c r="C51" s="109"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="136"/>
+      <c r="D51" s="185"/>
+      <c r="E51" s="186"/>
       <c r="F51" s="109"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="140"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="140"/>
-      <c r="K51" s="141"/>
-      <c r="L51" s="141"/>
-      <c r="M51" s="142"/>
-      <c r="N51" s="142"/>
+      <c r="H51" s="161"/>
+      <c r="I51" s="161"/>
+      <c r="J51" s="161"/>
+      <c r="K51" s="162"/>
+      <c r="L51" s="162"/>
+      <c r="M51" s="163"/>
+      <c r="N51" s="163"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="12">
@@ -5340,17 +5340,17 @@
       </c>
       <c r="B52" s="109"/>
       <c r="C52" s="109"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="136"/>
+      <c r="D52" s="185"/>
+      <c r="E52" s="186"/>
       <c r="F52" s="109"/>
       <c r="G52" s="14"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="140"/>
-      <c r="K52" s="141"/>
-      <c r="L52" s="141"/>
-      <c r="M52" s="142"/>
-      <c r="N52" s="142"/>
+      <c r="H52" s="161"/>
+      <c r="I52" s="161"/>
+      <c r="J52" s="161"/>
+      <c r="K52" s="162"/>
+      <c r="L52" s="162"/>
+      <c r="M52" s="163"/>
+      <c r="N52" s="163"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="12">
@@ -5358,17 +5358,17 @@
       </c>
       <c r="B53" s="109"/>
       <c r="C53" s="109"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="136"/>
+      <c r="D53" s="185"/>
+      <c r="E53" s="186"/>
       <c r="F53" s="109"/>
       <c r="G53" s="14"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="140"/>
-      <c r="J53" s="140"/>
-      <c r="K53" s="141"/>
-      <c r="L53" s="141"/>
-      <c r="M53" s="142"/>
-      <c r="N53" s="142"/>
+      <c r="H53" s="161"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="161"/>
+      <c r="K53" s="162"/>
+      <c r="L53" s="162"/>
+      <c r="M53" s="163"/>
+      <c r="N53" s="163"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="12">
@@ -5376,17 +5376,17 @@
       </c>
       <c r="B54" s="109"/>
       <c r="C54" s="109"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="136"/>
+      <c r="D54" s="185"/>
+      <c r="E54" s="186"/>
       <c r="F54" s="109"/>
       <c r="G54" s="14"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="140"/>
-      <c r="J54" s="140"/>
-      <c r="K54" s="141"/>
-      <c r="L54" s="141"/>
-      <c r="M54" s="142"/>
-      <c r="N54" s="142"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="161"/>
+      <c r="K54" s="162"/>
+      <c r="L54" s="162"/>
+      <c r="M54" s="163"/>
+      <c r="N54" s="163"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="12">
@@ -5394,17 +5394,17 @@
       </c>
       <c r="B55" s="109"/>
       <c r="C55" s="113"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="136"/>
+      <c r="D55" s="185"/>
+      <c r="E55" s="186"/>
       <c r="F55" s="109"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="140"/>
-      <c r="I55" s="140"/>
-      <c r="J55" s="140"/>
-      <c r="K55" s="141"/>
-      <c r="L55" s="141"/>
-      <c r="M55" s="142"/>
-      <c r="N55" s="142"/>
+      <c r="H55" s="161"/>
+      <c r="I55" s="161"/>
+      <c r="J55" s="161"/>
+      <c r="K55" s="162"/>
+      <c r="L55" s="162"/>
+      <c r="M55" s="163"/>
+      <c r="N55" s="163"/>
     </row>
     <row r="56" spans="1:14" hidden="1">
       <c r="A56" s="12">
@@ -5416,13 +5416,13 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="140"/>
-      <c r="J56" s="140"/>
-      <c r="K56" s="141"/>
-      <c r="L56" s="141"/>
-      <c r="M56" s="142"/>
-      <c r="N56" s="142"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="161"/>
+      <c r="J56" s="161"/>
+      <c r="K56" s="162"/>
+      <c r="L56" s="162"/>
+      <c r="M56" s="163"/>
+      <c r="N56" s="163"/>
     </row>
     <row r="57" spans="1:14" hidden="1">
       <c r="A57" s="12">
@@ -5434,13 +5434,13 @@
       <c r="E57" s="71"/>
       <c r="F57" s="71"/>
       <c r="G57" s="14"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="140"/>
-      <c r="K57" s="141"/>
-      <c r="L57" s="141"/>
-      <c r="M57" s="142"/>
-      <c r="N57" s="142"/>
+      <c r="H57" s="161"/>
+      <c r="I57" s="161"/>
+      <c r="J57" s="161"/>
+      <c r="K57" s="162"/>
+      <c r="L57" s="162"/>
+      <c r="M57" s="163"/>
+      <c r="N57" s="163"/>
     </row>
     <row r="58" spans="1:14" hidden="1">
       <c r="A58" s="12">
@@ -5452,13 +5452,13 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="14"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="140"/>
-      <c r="K58" s="141"/>
-      <c r="L58" s="141"/>
-      <c r="M58" s="142"/>
-      <c r="N58" s="142"/>
+      <c r="H58" s="161"/>
+      <c r="I58" s="161"/>
+      <c r="J58" s="161"/>
+      <c r="K58" s="162"/>
+      <c r="L58" s="162"/>
+      <c r="M58" s="163"/>
+      <c r="N58" s="163"/>
     </row>
     <row r="59" spans="1:14" hidden="1">
       <c r="A59" s="12">
@@ -5470,13 +5470,13 @@
       <c r="E59" s="71"/>
       <c r="F59" s="71"/>
       <c r="G59" s="14"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
-      <c r="J59" s="140"/>
-      <c r="K59" s="141"/>
-      <c r="L59" s="141"/>
-      <c r="M59" s="142"/>
-      <c r="N59" s="142"/>
+      <c r="H59" s="161"/>
+      <c r="I59" s="161"/>
+      <c r="J59" s="161"/>
+      <c r="K59" s="162"/>
+      <c r="L59" s="162"/>
+      <c r="M59" s="163"/>
+      <c r="N59" s="163"/>
     </row>
     <row r="60" spans="1:14" hidden="1">
       <c r="A60" s="12">
@@ -5488,13 +5488,13 @@
       <c r="E60" s="71"/>
       <c r="F60" s="71"/>
       <c r="G60" s="14"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="140"/>
-      <c r="K60" s="141"/>
-      <c r="L60" s="141"/>
-      <c r="M60" s="142"/>
-      <c r="N60" s="142"/>
+      <c r="H60" s="161"/>
+      <c r="I60" s="161"/>
+      <c r="J60" s="161"/>
+      <c r="K60" s="162"/>
+      <c r="L60" s="162"/>
+      <c r="M60" s="163"/>
+      <c r="N60" s="163"/>
     </row>
     <row r="61" spans="1:14" hidden="1">
       <c r="A61" s="12">
@@ -5506,13 +5506,13 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="14"/>
-      <c r="H61" s="140"/>
-      <c r="I61" s="140"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="141"/>
-      <c r="L61" s="141"/>
-      <c r="M61" s="142"/>
-      <c r="N61" s="142"/>
+      <c r="H61" s="161"/>
+      <c r="I61" s="161"/>
+      <c r="J61" s="161"/>
+      <c r="K61" s="162"/>
+      <c r="L61" s="162"/>
+      <c r="M61" s="163"/>
+      <c r="N61" s="163"/>
     </row>
     <row r="62" spans="1:14" hidden="1">
       <c r="A62" s="12">
@@ -5524,13 +5524,13 @@
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
       <c r="G62" s="14"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="140"/>
-      <c r="K62" s="141"/>
-      <c r="L62" s="141"/>
-      <c r="M62" s="142"/>
-      <c r="N62" s="142"/>
+      <c r="H62" s="161"/>
+      <c r="I62" s="161"/>
+      <c r="J62" s="161"/>
+      <c r="K62" s="162"/>
+      <c r="L62" s="162"/>
+      <c r="M62" s="163"/>
+      <c r="N62" s="163"/>
     </row>
     <row r="63" spans="1:14" hidden="1">
       <c r="A63" s="12">
@@ -5542,13 +5542,13 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
-      <c r="J63" s="140"/>
-      <c r="K63" s="141"/>
-      <c r="L63" s="141"/>
-      <c r="M63" s="142"/>
-      <c r="N63" s="142"/>
+      <c r="H63" s="161"/>
+      <c r="I63" s="161"/>
+      <c r="J63" s="161"/>
+      <c r="K63" s="162"/>
+      <c r="L63" s="162"/>
+      <c r="M63" s="163"/>
+      <c r="N63" s="163"/>
     </row>
     <row r="64" spans="1:14" hidden="1">
       <c r="A64" s="12">
@@ -5560,13 +5560,13 @@
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
       <c r="G64" s="14"/>
-      <c r="H64" s="140"/>
-      <c r="I64" s="140"/>
-      <c r="J64" s="140"/>
-      <c r="K64" s="141"/>
-      <c r="L64" s="141"/>
-      <c r="M64" s="142"/>
-      <c r="N64" s="142"/>
+      <c r="H64" s="161"/>
+      <c r="I64" s="161"/>
+      <c r="J64" s="161"/>
+      <c r="K64" s="162"/>
+      <c r="L64" s="162"/>
+      <c r="M64" s="163"/>
+      <c r="N64" s="163"/>
     </row>
     <row r="65" spans="1:14" hidden="1">
       <c r="A65" s="12">
@@ -5578,13 +5578,13 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="14"/>
-      <c r="H65" s="140"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="140"/>
-      <c r="K65" s="141"/>
-      <c r="L65" s="141"/>
-      <c r="M65" s="142"/>
-      <c r="N65" s="142"/>
+      <c r="H65" s="161"/>
+      <c r="I65" s="161"/>
+      <c r="J65" s="161"/>
+      <c r="K65" s="162"/>
+      <c r="L65" s="162"/>
+      <c r="M65" s="163"/>
+      <c r="N65" s="163"/>
     </row>
     <row r="66" spans="1:14" hidden="1">
       <c r="A66" s="12">
@@ -5596,13 +5596,13 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="14"/>
-      <c r="H66" s="140"/>
-      <c r="I66" s="140"/>
-      <c r="J66" s="140"/>
-      <c r="K66" s="141"/>
-      <c r="L66" s="141"/>
-      <c r="M66" s="142"/>
-      <c r="N66" s="142"/>
+      <c r="H66" s="161"/>
+      <c r="I66" s="161"/>
+      <c r="J66" s="161"/>
+      <c r="K66" s="162"/>
+      <c r="L66" s="162"/>
+      <c r="M66" s="163"/>
+      <c r="N66" s="163"/>
     </row>
     <row r="67" spans="1:14" hidden="1">
       <c r="A67" s="12">
@@ -5614,13 +5614,13 @@
       <c r="E67" s="13"/>
       <c r="F67" s="71"/>
       <c r="G67" s="14"/>
-      <c r="H67" s="140"/>
-      <c r="I67" s="140"/>
-      <c r="J67" s="140"/>
-      <c r="K67" s="141"/>
-      <c r="L67" s="141"/>
-      <c r="M67" s="142"/>
-      <c r="N67" s="142"/>
+      <c r="H67" s="161"/>
+      <c r="I67" s="161"/>
+      <c r="J67" s="161"/>
+      <c r="K67" s="162"/>
+      <c r="L67" s="162"/>
+      <c r="M67" s="163"/>
+      <c r="N67" s="163"/>
     </row>
     <row r="68" spans="1:14" hidden="1">
       <c r="A68" s="12">
@@ -5632,13 +5632,13 @@
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="14"/>
-      <c r="H68" s="140"/>
-      <c r="I68" s="140"/>
-      <c r="J68" s="140"/>
-      <c r="K68" s="141"/>
-      <c r="L68" s="141"/>
-      <c r="M68" s="142"/>
-      <c r="N68" s="142"/>
+      <c r="H68" s="161"/>
+      <c r="I68" s="161"/>
+      <c r="J68" s="161"/>
+      <c r="K68" s="162"/>
+      <c r="L68" s="162"/>
+      <c r="M68" s="163"/>
+      <c r="N68" s="163"/>
     </row>
     <row r="69" spans="1:14" hidden="1">
       <c r="A69" s="12">
@@ -5650,13 +5650,13 @@
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="14"/>
-      <c r="H69" s="140"/>
-      <c r="I69" s="140"/>
-      <c r="J69" s="140"/>
-      <c r="K69" s="141"/>
-      <c r="L69" s="141"/>
-      <c r="M69" s="142"/>
-      <c r="N69" s="142"/>
+      <c r="H69" s="161"/>
+      <c r="I69" s="161"/>
+      <c r="J69" s="161"/>
+      <c r="K69" s="162"/>
+      <c r="L69" s="162"/>
+      <c r="M69" s="163"/>
+      <c r="N69" s="163"/>
     </row>
     <row r="70" spans="1:14" hidden="1">
       <c r="A70" s="12">
@@ -5668,13 +5668,13 @@
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="14"/>
-      <c r="H70" s="140"/>
-      <c r="I70" s="140"/>
-      <c r="J70" s="140"/>
-      <c r="K70" s="141"/>
-      <c r="L70" s="141"/>
-      <c r="M70" s="142"/>
-      <c r="N70" s="142"/>
+      <c r="H70" s="161"/>
+      <c r="I70" s="161"/>
+      <c r="J70" s="161"/>
+      <c r="K70" s="162"/>
+      <c r="L70" s="162"/>
+      <c r="M70" s="163"/>
+      <c r="N70" s="163"/>
     </row>
     <row r="71" spans="1:14" hidden="1">
       <c r="A71" s="12">
@@ -5686,13 +5686,13 @@
       <c r="E71" s="71"/>
       <c r="F71" s="71"/>
       <c r="G71" s="14"/>
-      <c r="H71" s="140"/>
-      <c r="I71" s="140"/>
-      <c r="J71" s="140"/>
-      <c r="K71" s="141"/>
-      <c r="L71" s="141"/>
-      <c r="M71" s="142"/>
-      <c r="N71" s="142"/>
+      <c r="H71" s="161"/>
+      <c r="I71" s="161"/>
+      <c r="J71" s="161"/>
+      <c r="K71" s="162"/>
+      <c r="L71" s="162"/>
+      <c r="M71" s="163"/>
+      <c r="N71" s="163"/>
     </row>
   </sheetData>
   <sheetProtection sort="0"/>
@@ -5700,6 +5700,218 @@
     <sortCondition ref="C11:C45"/>
   </sortState>
   <mergeCells count="236">
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="A2:N3"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
     <mergeCell ref="Q18:S18"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:E6"/>
@@ -5724,218 +5936,6 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="A2:N3"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <conditionalFormatting sqref="B35:B71">
     <cfRule type="cellIs" dxfId="26" priority="32" stopIfTrue="1" operator="equal">
@@ -6080,296 +6080,296 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:61" ht="15" customHeight="1">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="216" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="187"/>
-      <c r="AD2" s="187"/>
-      <c r="AE2" s="187"/>
-      <c r="AF2" s="187"/>
-      <c r="AG2" s="187"/>
-      <c r="AH2" s="187"/>
-      <c r="AI2" s="187"/>
-      <c r="AJ2" s="187"/>
-      <c r="AK2" s="187"/>
-      <c r="AL2" s="187"/>
-      <c r="AM2" s="187"/>
-      <c r="AN2" s="187"/>
-      <c r="AO2" s="187"/>
-      <c r="AP2" s="187"/>
-      <c r="AQ2" s="187"/>
-      <c r="AR2" s="187"/>
-      <c r="AS2" s="187"/>
-      <c r="AT2" s="187"/>
-      <c r="AU2" s="187"/>
-      <c r="AV2" s="187"/>
-      <c r="AW2" s="187"/>
-      <c r="AX2" s="187"/>
-      <c r="AY2" s="187"/>
-      <c r="AZ2" s="187"/>
-      <c r="BA2" s="187"/>
-      <c r="BB2" s="187"/>
-      <c r="BC2" s="187"/>
-      <c r="BD2" s="187"/>
-      <c r="BE2" s="187"/>
-      <c r="BF2" s="187"/>
-      <c r="BG2" s="187"/>
-      <c r="BH2" s="187"/>
-      <c r="BI2" s="187"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="216"/>
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="216"/>
+      <c r="AJ2" s="216"/>
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="216"/>
+      <c r="AM2" s="216"/>
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="216"/>
+      <c r="AP2" s="216"/>
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="216"/>
+      <c r="AS2" s="216"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="216"/>
+      <c r="AV2" s="216"/>
+      <c r="AW2" s="216"/>
+      <c r="AX2" s="216"/>
+      <c r="AY2" s="216"/>
+      <c r="AZ2" s="216"/>
+      <c r="BA2" s="216"/>
+      <c r="BB2" s="216"/>
+      <c r="BC2" s="216"/>
+      <c r="BD2" s="216"/>
+      <c r="BE2" s="216"/>
+      <c r="BF2" s="216"/>
+      <c r="BG2" s="216"/>
+      <c r="BH2" s="216"/>
+      <c r="BI2" s="216"/>
     </row>
     <row r="3" spans="1:61" ht="15" customHeight="1">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="187"/>
-      <c r="AD3" s="187"/>
-      <c r="AE3" s="187"/>
-      <c r="AF3" s="187"/>
-      <c r="AG3" s="187"/>
-      <c r="AH3" s="187"/>
-      <c r="AI3" s="187"/>
-      <c r="AJ3" s="187"/>
-      <c r="AK3" s="187"/>
-      <c r="AL3" s="187"/>
-      <c r="AM3" s="187"/>
-      <c r="AN3" s="187"/>
-      <c r="AO3" s="187"/>
-      <c r="AP3" s="187"/>
-      <c r="AQ3" s="187"/>
-      <c r="AR3" s="187"/>
-      <c r="AS3" s="187"/>
-      <c r="AT3" s="187"/>
-      <c r="AU3" s="187"/>
-      <c r="AV3" s="187"/>
-      <c r="AW3" s="187"/>
-      <c r="AX3" s="187"/>
-      <c r="AY3" s="187"/>
-      <c r="AZ3" s="187"/>
-      <c r="BA3" s="187"/>
-      <c r="BB3" s="187"/>
-      <c r="BC3" s="187"/>
-      <c r="BD3" s="187"/>
-      <c r="BE3" s="187"/>
-      <c r="BF3" s="187"/>
-      <c r="BG3" s="187"/>
-      <c r="BH3" s="187"/>
-      <c r="BI3" s="187"/>
+      <c r="A3" s="216"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="216"/>
+      <c r="S3" s="216"/>
+      <c r="T3" s="216"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="216"/>
+      <c r="X3" s="216"/>
+      <c r="Y3" s="216"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="216"/>
+      <c r="AB3" s="216"/>
+      <c r="AC3" s="216"/>
+      <c r="AD3" s="216"/>
+      <c r="AE3" s="216"/>
+      <c r="AF3" s="216"/>
+      <c r="AG3" s="216"/>
+      <c r="AH3" s="216"/>
+      <c r="AI3" s="216"/>
+      <c r="AJ3" s="216"/>
+      <c r="AK3" s="216"/>
+      <c r="AL3" s="216"/>
+      <c r="AM3" s="216"/>
+      <c r="AN3" s="216"/>
+      <c r="AO3" s="216"/>
+      <c r="AP3" s="216"/>
+      <c r="AQ3" s="216"/>
+      <c r="AR3" s="216"/>
+      <c r="AS3" s="216"/>
+      <c r="AT3" s="216"/>
+      <c r="AU3" s="216"/>
+      <c r="AV3" s="216"/>
+      <c r="AW3" s="216"/>
+      <c r="AX3" s="216"/>
+      <c r="AY3" s="216"/>
+      <c r="AZ3" s="216"/>
+      <c r="BA3" s="216"/>
+      <c r="BB3" s="216"/>
+      <c r="BC3" s="216"/>
+      <c r="BD3" s="216"/>
+      <c r="BE3" s="216"/>
+      <c r="BF3" s="216"/>
+      <c r="BG3" s="216"/>
+      <c r="BH3" s="216"/>
+      <c r="BI3" s="216"/>
     </row>
     <row r="4" spans="1:61" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:61" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="204" t="s">
+      <c r="A5" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="207" t="s">
+      <c r="C5" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="208" t="s">
+      <c r="D5" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="209"/>
-      <c r="L5" s="209"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="209"/>
-      <c r="O5" s="209"/>
-      <c r="P5" s="209"/>
-      <c r="Q5" s="209"/>
-      <c r="R5" s="209"/>
-      <c r="S5" s="209"/>
-      <c r="T5" s="209"/>
-      <c r="U5" s="209"/>
-      <c r="V5" s="209"/>
-      <c r="W5" s="209"/>
-      <c r="X5" s="209"/>
-      <c r="Y5" s="209"/>
-      <c r="Z5" s="209"/>
-      <c r="AA5" s="209"/>
-      <c r="AB5" s="209"/>
-      <c r="AC5" s="209"/>
-      <c r="AD5" s="209"/>
-      <c r="AE5" s="209"/>
-      <c r="AF5" s="209"/>
-      <c r="AG5" s="209"/>
-      <c r="AH5" s="209"/>
-      <c r="AI5" s="209"/>
-      <c r="AJ5" s="209"/>
-      <c r="AK5" s="209"/>
-      <c r="AL5" s="209"/>
-      <c r="AM5" s="209"/>
-      <c r="AN5" s="209"/>
-      <c r="AO5" s="209"/>
-      <c r="AP5" s="209"/>
-      <c r="AQ5" s="209"/>
-      <c r="AR5" s="209"/>
-      <c r="AS5" s="209"/>
-      <c r="AT5" s="209"/>
-      <c r="AU5" s="209"/>
-      <c r="AV5" s="209"/>
-      <c r="AW5" s="209"/>
-      <c r="AX5" s="209"/>
-      <c r="AY5" s="209"/>
-      <c r="AZ5" s="209"/>
-      <c r="BA5" s="209"/>
-      <c r="BB5" s="209"/>
-      <c r="BC5" s="209"/>
-      <c r="BD5" s="210"/>
-      <c r="BE5" s="211" t="s">
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="197"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="197"/>
+      <c r="AF5" s="197"/>
+      <c r="AG5" s="197"/>
+      <c r="AH5" s="197"/>
+      <c r="AI5" s="197"/>
+      <c r="AJ5" s="197"/>
+      <c r="AK5" s="197"/>
+      <c r="AL5" s="197"/>
+      <c r="AM5" s="197"/>
+      <c r="AN5" s="197"/>
+      <c r="AO5" s="197"/>
+      <c r="AP5" s="197"/>
+      <c r="AQ5" s="197"/>
+      <c r="AR5" s="197"/>
+      <c r="AS5" s="197"/>
+      <c r="AT5" s="197"/>
+      <c r="AU5" s="197"/>
+      <c r="AV5" s="197"/>
+      <c r="AW5" s="197"/>
+      <c r="AX5" s="197"/>
+      <c r="AY5" s="197"/>
+      <c r="AZ5" s="197"/>
+      <c r="BA5" s="197"/>
+      <c r="BB5" s="197"/>
+      <c r="BC5" s="197"/>
+      <c r="BD5" s="198"/>
+      <c r="BE5" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="BF5" s="212"/>
-      <c r="BG5" s="201" t="s">
+      <c r="BF5" s="200"/>
+      <c r="BG5" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="BH5" s="202"/>
-      <c r="BI5" s="203"/>
+      <c r="BH5" s="189"/>
+      <c r="BI5" s="190"/>
     </row>
     <row r="6" spans="1:61" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="205"/>
-      <c r="B6" s="207"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="188" t="s">
+      <c r="A6" s="193"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="191" t="s">
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="213" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="191"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="191"/>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="191"/>
-      <c r="V6" s="191"/>
-      <c r="W6" s="191"/>
-      <c r="X6" s="191"/>
-      <c r="Y6" s="191"/>
-      <c r="Z6" s="191"/>
-      <c r="AA6" s="191"/>
-      <c r="AB6" s="191"/>
-      <c r="AC6" s="191"/>
-      <c r="AD6" s="191"/>
-      <c r="AE6" s="191"/>
-      <c r="AF6" s="191"/>
-      <c r="AG6" s="191"/>
-      <c r="AH6" s="191"/>
-      <c r="AI6" s="191"/>
-      <c r="AJ6" s="191"/>
-      <c r="AK6" s="191"/>
-      <c r="AL6" s="191"/>
-      <c r="AM6" s="191"/>
-      <c r="AN6" s="191"/>
-      <c r="AO6" s="191" t="s">
+      <c r="K6" s="213"/>
+      <c r="L6" s="213"/>
+      <c r="M6" s="213"/>
+      <c r="N6" s="213"/>
+      <c r="O6" s="213"/>
+      <c r="P6" s="213"/>
+      <c r="Q6" s="213"/>
+      <c r="R6" s="213"/>
+      <c r="S6" s="213"/>
+      <c r="T6" s="213"/>
+      <c r="U6" s="213"/>
+      <c r="V6" s="213"/>
+      <c r="W6" s="213"/>
+      <c r="X6" s="213"/>
+      <c r="Y6" s="213"/>
+      <c r="Z6" s="213"/>
+      <c r="AA6" s="213"/>
+      <c r="AB6" s="213"/>
+      <c r="AC6" s="213"/>
+      <c r="AD6" s="213"/>
+      <c r="AE6" s="213"/>
+      <c r="AF6" s="213"/>
+      <c r="AG6" s="213"/>
+      <c r="AH6" s="213"/>
+      <c r="AI6" s="213"/>
+      <c r="AJ6" s="213"/>
+      <c r="AK6" s="213"/>
+      <c r="AL6" s="213"/>
+      <c r="AM6" s="213"/>
+      <c r="AN6" s="213"/>
+      <c r="AO6" s="213" t="s">
         <v>109</v>
       </c>
-      <c r="AP6" s="191"/>
-      <c r="AQ6" s="191"/>
-      <c r="AR6" s="191"/>
-      <c r="AS6" s="191" t="s">
+      <c r="AP6" s="213"/>
+      <c r="AQ6" s="213"/>
+      <c r="AR6" s="213"/>
+      <c r="AS6" s="213" t="s">
         <v>34</v>
       </c>
-      <c r="AT6" s="191"/>
-      <c r="AU6" s="191"/>
-      <c r="AV6" s="191" t="s">
+      <c r="AT6" s="213"/>
+      <c r="AU6" s="213"/>
+      <c r="AV6" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="AW6" s="191"/>
-      <c r="AX6" s="191"/>
-      <c r="AY6" s="191"/>
-      <c r="AZ6" s="191"/>
-      <c r="BA6" s="191"/>
-      <c r="BB6" s="191"/>
-      <c r="BC6" s="193" t="s">
+      <c r="AW6" s="213"/>
+      <c r="AX6" s="213"/>
+      <c r="AY6" s="213"/>
+      <c r="AZ6" s="213"/>
+      <c r="BA6" s="213"/>
+      <c r="BB6" s="213"/>
+      <c r="BC6" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="BD6" s="194"/>
-      <c r="BE6" s="195" t="s">
+      <c r="BD6" s="210"/>
+      <c r="BE6" s="211" t="s">
         <v>118</v>
       </c>
-      <c r="BF6" s="196"/>
-      <c r="BG6" s="197" t="s">
+      <c r="BF6" s="212"/>
+      <c r="BG6" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="BH6" s="197" t="s">
+      <c r="BH6" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="BI6" s="214" t="s">
+      <c r="BI6" s="205" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:61" ht="15.75" thickBot="1">
-      <c r="A7" s="205"/>
-      <c r="B7" s="207"/>
-      <c r="C7" s="207"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
       <c r="E7" s="86"/>
       <c r="F7" s="91">
         <v>0.3</v>
@@ -6378,201 +6378,201 @@
       <c r="I7" s="91">
         <v>0.3</v>
       </c>
-      <c r="J7" s="190"/>
-      <c r="K7" s="190"/>
-      <c r="L7" s="190"/>
-      <c r="M7" s="190"/>
-      <c r="N7" s="190"/>
-      <c r="O7" s="190"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="190"/>
-      <c r="R7" s="190"/>
-      <c r="S7" s="190"/>
-      <c r="T7" s="200"/>
-      <c r="U7" s="200"/>
-      <c r="V7" s="190"/>
-      <c r="W7" s="190"/>
-      <c r="X7" s="190"/>
-      <c r="Y7" s="190"/>
-      <c r="Z7" s="190"/>
-      <c r="AA7" s="190"/>
-      <c r="AB7" s="190"/>
-      <c r="AC7" s="190"/>
-      <c r="AD7" s="190"/>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="190"/>
-      <c r="AG7" s="190"/>
-      <c r="AH7" s="190"/>
-      <c r="AI7" s="190"/>
-      <c r="AJ7" s="190"/>
-      <c r="AK7" s="190"/>
-      <c r="AL7" s="192">
+      <c r="J7" s="203"/>
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="208"/>
+      <c r="U7" s="208"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="203"/>
+      <c r="AF7" s="203"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="203"/>
+      <c r="AJ7" s="203"/>
+      <c r="AK7" s="203"/>
+      <c r="AL7" s="204">
         <f>COUNT(AJ9,AH9,AF9,AD9,Z9,V9,T9,P9,N9,L9,J9,X9)</f>
         <v>4</v>
       </c>
-      <c r="AM7" s="192"/>
+      <c r="AM7" s="204"/>
       <c r="AN7" s="92">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="190" t="s">
+      <c r="AO7" s="203" t="s">
         <v>263</v>
       </c>
-      <c r="AP7" s="190"/>
-      <c r="AQ7" s="190" t="s">
+      <c r="AP7" s="203"/>
+      <c r="AQ7" s="203" t="s">
         <v>265</v>
       </c>
-      <c r="AR7" s="190"/>
-      <c r="AS7" s="192">
+      <c r="AR7" s="203"/>
+      <c r="AS7" s="204">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>2</v>
       </c>
-      <c r="AT7" s="192"/>
+      <c r="AT7" s="204"/>
       <c r="AU7" s="85">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="190" t="s">
+      <c r="AV7" s="203" t="s">
         <v>264</v>
       </c>
-      <c r="AW7" s="190"/>
-      <c r="AX7" s="190"/>
-      <c r="AY7" s="190"/>
-      <c r="AZ7" s="192">
+      <c r="AW7" s="203"/>
+      <c r="AX7" s="203"/>
+      <c r="AY7" s="203"/>
+      <c r="AZ7" s="204">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="192"/>
+      <c r="BA7" s="204"/>
       <c r="BB7" s="16">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="193"/>
-      <c r="BD7" s="194"/>
-      <c r="BE7" s="190"/>
-      <c r="BF7" s="190"/>
-      <c r="BG7" s="197"/>
-      <c r="BH7" s="197"/>
-      <c r="BI7" s="215"/>
+      <c r="BC7" s="209"/>
+      <c r="BD7" s="210"/>
+      <c r="BE7" s="203"/>
+      <c r="BF7" s="203"/>
+      <c r="BG7" s="191"/>
+      <c r="BH7" s="191"/>
+      <c r="BI7" s="206"/>
     </row>
     <row r="8" spans="1:61" ht="15.75" thickBot="1">
-      <c r="A8" s="205"/>
-      <c r="B8" s="207"/>
-      <c r="C8" s="207"/>
-      <c r="D8" s="213" t="s">
+      <c r="A8" s="193"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="201" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213" t="s">
+      <c r="E8" s="201"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="186" t="s">
+      <c r="H8" s="201"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="186"/>
-      <c r="L8" s="186" t="s">
+      <c r="K8" s="202"/>
+      <c r="L8" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="186"/>
-      <c r="N8" s="186" t="s">
+      <c r="M8" s="202"/>
+      <c r="N8" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186" t="s">
+      <c r="O8" s="202"/>
+      <c r="P8" s="202" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="186" t="s">
+      <c r="Q8" s="202"/>
+      <c r="R8" s="202" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="186"/>
-      <c r="T8" s="186" t="s">
+      <c r="S8" s="202"/>
+      <c r="T8" s="202" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="186"/>
-      <c r="V8" s="186" t="s">
+      <c r="U8" s="202"/>
+      <c r="V8" s="202" t="s">
         <v>47</v>
       </c>
-      <c r="W8" s="186"/>
-      <c r="X8" s="186" t="s">
+      <c r="W8" s="202"/>
+      <c r="X8" s="202" t="s">
         <v>48</v>
       </c>
-      <c r="Y8" s="186"/>
-      <c r="Z8" s="186" t="s">
+      <c r="Y8" s="202"/>
+      <c r="Z8" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="AA8" s="186"/>
-      <c r="AB8" s="186" t="s">
+      <c r="AA8" s="202"/>
+      <c r="AB8" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="AC8" s="186"/>
-      <c r="AD8" s="186" t="s">
+      <c r="AC8" s="202"/>
+      <c r="AD8" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="AE8" s="186"/>
-      <c r="AF8" s="186" t="s">
+      <c r="AE8" s="202"/>
+      <c r="AF8" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="AG8" s="186"/>
-      <c r="AH8" s="186" t="s">
+      <c r="AG8" s="202"/>
+      <c r="AH8" s="202" t="s">
         <v>53</v>
       </c>
-      <c r="AI8" s="186"/>
-      <c r="AJ8" s="186" t="s">
+      <c r="AI8" s="202"/>
+      <c r="AJ8" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="AK8" s="186"/>
-      <c r="AL8" s="186" t="s">
+      <c r="AK8" s="202"/>
+      <c r="AL8" s="202" t="s">
         <v>55</v>
       </c>
-      <c r="AM8" s="186"/>
+      <c r="AM8" s="202"/>
       <c r="AN8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AO8" s="186" t="s">
+      <c r="AO8" s="202" t="s">
         <v>57</v>
       </c>
-      <c r="AP8" s="186"/>
-      <c r="AQ8" s="186" t="s">
+      <c r="AP8" s="202"/>
+      <c r="AQ8" s="202" t="s">
         <v>58</v>
       </c>
-      <c r="AR8" s="186"/>
-      <c r="AS8" s="186" t="s">
+      <c r="AR8" s="202"/>
+      <c r="AS8" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="AT8" s="186"/>
+      <c r="AT8" s="202"/>
       <c r="AU8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AV8" s="186" t="s">
+      <c r="AV8" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="AW8" s="186"/>
-      <c r="AX8" s="186" t="s">
+      <c r="AW8" s="202"/>
+      <c r="AX8" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="AY8" s="186"/>
-      <c r="AZ8" s="186" t="s">
+      <c r="AY8" s="202"/>
+      <c r="AZ8" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="BA8" s="186"/>
+      <c r="BA8" s="202"/>
       <c r="BB8" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="BC8" s="193"/>
-      <c r="BD8" s="194"/>
-      <c r="BE8" s="198" t="s">
+      <c r="BC8" s="209"/>
+      <c r="BD8" s="210"/>
+      <c r="BE8" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="BF8" s="199"/>
-      <c r="BG8" s="197"/>
-      <c r="BH8" s="197"/>
-      <c r="BI8" s="215"/>
+      <c r="BF8" s="215"/>
+      <c r="BG8" s="191"/>
+      <c r="BH8" s="191"/>
+      <c r="BI8" s="206"/>
     </row>
     <row r="9" spans="1:61" ht="15.75" thickBot="1">
-      <c r="A9" s="206"/>
-      <c r="B9" s="207"/>
-      <c r="C9" s="207"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
       <c r="D9" s="20">
         <v>50</v>
       </c>
@@ -6662,9 +6662,9 @@
       <c r="BF9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="BG9" s="197"/>
-      <c r="BH9" s="197"/>
-      <c r="BI9" s="216"/>
+      <c r="BG9" s="191"/>
+      <c r="BH9" s="191"/>
+      <c r="BI9" s="207"/>
     </row>
     <row r="10" spans="1:61">
       <c r="A10" s="34">
@@ -16063,6 +16063,52 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="62">
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:BI3"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="BH6:BH9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
     <mergeCell ref="BG5:BI5"/>
     <mergeCell ref="BG6:BG9"/>
     <mergeCell ref="A5:A9"/>
@@ -16079,52 +16125,6 @@
     <mergeCell ref="AZ7:BA7"/>
     <mergeCell ref="BI6:BI9"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="BH6:BH9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:BI3"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
   </mergeCells>
   <conditionalFormatting sqref="BI10:BI70">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -16163,35 +16163,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="A2" s="217" t="str">
+      <c r="A2" s="219" t="str">
         <f>UPPER(CONCATENATE("GRADING SHEET A.Y."," ",REGISTRATION!Q12))</f>
         <v>GRADING SHEET A.Y. 2017-2018</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="217"/>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
+      <c r="A3" s="219"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="str">
@@ -16254,32 +16254,32 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:12" ht="15" customHeight="1">
-      <c r="A10" s="228" t="s">
+      <c r="A10" s="230" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="231" t="s">
+      <c r="C10" s="233" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="231"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="231"/>
-      <c r="J10" s="218" t="s">
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="219"/>
-      <c r="L10" s="222" t="s">
+      <c r="K10" s="221"/>
+      <c r="L10" s="224" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="229"/>
-      <c r="B11" s="225" t="s">
+      <c r="A11" s="231"/>
+      <c r="B11" s="227" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="36" t="s">
@@ -16297,17 +16297,17 @@
       <c r="G11" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="227" t="s">
+      <c r="H11" s="229" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="227"/>
-      <c r="J11" s="220"/>
-      <c r="K11" s="221"/>
-      <c r="L11" s="223"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="225"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A12" s="230"/>
-      <c r="B12" s="226"/>
+      <c r="A12" s="232"/>
+      <c r="B12" s="228"/>
       <c r="C12" s="38">
         <f>'RAW GRADES'!F7</f>
         <v>0.3</v>
@@ -16340,7 +16340,7 @@
       <c r="K12" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="224"/>
+      <c r="L12" s="226"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="41">
@@ -19397,7 +19397,7 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -19426,106 +19426,106 @@
       <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="236"/>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
+      <c r="A3" s="235"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="236" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="250"/>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
-      <c r="E4" s="250"/>
-      <c r="F4" s="250"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="236"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="236"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="250" t="s">
+      <c r="A6" s="236" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="250"/>
-      <c r="C6" s="250"/>
-      <c r="D6" s="250"/>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250"/>
+      <c r="B6" s="236"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="252" t="s">
+      <c r="A7" s="238" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="252"/>
-      <c r="C7" s="252"/>
-      <c r="D7" s="252"/>
-      <c r="E7" s="252"/>
-      <c r="F7" s="252"/>
+      <c r="B7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="238"/>
+      <c r="F7" s="238"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="253"/>
-      <c r="B8" s="253"/>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253"/>
+      <c r="A8" s="239"/>
+      <c r="B8" s="239"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="236"/>
-      <c r="B9" s="236"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="A9" s="235"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="235"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="254"/>
-      <c r="B10" s="254"/>
-      <c r="C10" s="254"/>
-      <c r="D10" s="254"/>
-      <c r="E10" s="254"/>
-      <c r="F10" s="254"/>
+      <c r="A10" s="240"/>
+      <c r="B10" s="240"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="240"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="255" t="s">
+      <c r="A11" s="241" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="255"/>
-      <c r="C11" s="255"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="255"/>
-      <c r="F11" s="255"/>
+      <c r="B11" s="241"/>
+      <c r="C11" s="241"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="241"/>
+      <c r="F11" s="241"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="253"/>
-      <c r="B12" s="253"/>
-      <c r="C12" s="253"/>
-      <c r="D12" s="253"/>
-      <c r="E12" s="253"/>
-      <c r="F12" s="253"/>
+      <c r="A12" s="239"/>
+      <c r="B12" s="239"/>
+      <c r="C12" s="239"/>
+      <c r="D12" s="239"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="239"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="51"/>
       <c r="B13" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="256" t="str">
+      <c r="C13" s="242" t="str">
         <f>UPPER(REGISTRATION!C7)</f>
         <v>DCIT 23</v>
       </c>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="242"/>
       <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:6">
@@ -19533,12 +19533,12 @@
       <c r="B14" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="249" t="str">
+      <c r="C14" s="234" t="str">
         <f>UPPER(REGISTRATION!C6)</f>
         <v>DISCRETE STRUCTURE</v>
       </c>
-      <c r="D14" s="249"/>
-      <c r="E14" s="249"/>
+      <c r="D14" s="234"/>
+      <c r="E14" s="234"/>
       <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:6" ht="15.75">
@@ -19546,12 +19546,12 @@
       <c r="B15" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="240" t="str">
+      <c r="C15" s="243" t="str">
         <f>UPPER(REGISTRATION!D8)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="240"/>
-      <c r="E15" s="240"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="243"/>
       <c r="F15" s="54"/>
     </row>
     <row r="16" spans="1:6">
@@ -19559,12 +19559,12 @@
       <c r="B16" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="241" t="str">
+      <c r="C16" s="244" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!E8))</f>
         <v>BSCS A</v>
       </c>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="244"/>
       <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6">
@@ -19572,12 +19572,12 @@
       <c r="B17" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="241" t="str">
+      <c r="C17" s="244" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!Q13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!Q12))</f>
         <v>SECOND SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="241"/>
-      <c r="E17" s="241"/>
+      <c r="D17" s="244"/>
+      <c r="E17" s="244"/>
       <c r="F17" s="54"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -19589,42 +19589,42 @@
       <c r="F18" s="51"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="232" t="s">
+      <c r="A19" s="245" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="244" t="s">
+      <c r="B19" s="248" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="232" t="s">
+      <c r="C19" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="232" t="s">
+      <c r="D19" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="246" t="s">
+      <c r="E19" s="250" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="232" t="s">
+      <c r="F19" s="245" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="242"/>
-      <c r="B20" s="245"/>
-      <c r="C20" s="242"/>
-      <c r="D20" s="242"/>
-      <c r="E20" s="247"/>
-      <c r="F20" s="233"/>
+      <c r="A20" s="246"/>
+      <c r="B20" s="249"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="253"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="243"/>
+      <c r="A21" s="247"/>
       <c r="B21" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="243"/>
-      <c r="D21" s="243"/>
-      <c r="E21" s="248"/>
-      <c r="F21" s="234"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="252"/>
+      <c r="F21" s="254"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="56">
@@ -20227,14 +20227,14 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="237" t="s">
+      <c r="A46" s="256" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="238"/>
-      <c r="C46" s="238"/>
-      <c r="D46" s="238"/>
-      <c r="E46" s="238"/>
-      <c r="F46" s="239"/>
+      <c r="B46" s="257"/>
+      <c r="C46" s="257"/>
+      <c r="D46" s="257"/>
+      <c r="E46" s="257"/>
+      <c r="F46" s="258"/>
     </row>
     <row r="47" spans="1:6" ht="15.75">
       <c r="A47" s="53"/>
@@ -20267,11 +20267,11 @@
       </c>
       <c r="C50" s="51"/>
       <c r="D50" s="51"/>
-      <c r="E50" s="235">
+      <c r="E50" s="255">
         <f ca="1">NOW()</f>
-        <v>43248.78200752315</v>
-      </c>
-      <c r="F50" s="235"/>
+        <v>43250.934511111111</v>
+      </c>
+      <c r="F50" s="255"/>
     </row>
     <row r="51" spans="1:7" ht="15.75">
       <c r="A51" s="51"/>
@@ -20281,10 +20281,10 @@
       </c>
       <c r="C51" s="64"/>
       <c r="D51" s="64"/>
-      <c r="E51" s="236" t="s">
+      <c r="E51" s="235" t="s">
         <v>91</v>
       </c>
-      <c r="F51" s="236"/>
+      <c r="F51" s="235"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="51"/>
@@ -20301,8 +20301,8 @@
       <c r="B53" s="65"/>
       <c r="C53" s="65"/>
       <c r="D53" s="65"/>
-      <c r="E53" s="236"/>
-      <c r="F53" s="236"/>
+      <c r="E53" s="235"/>
+      <c r="F53" s="235"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="51"/>
@@ -20419,6 +20419,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -20431,19 +20444,6 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="A46:F46"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F45">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
@@ -20470,8 +20470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A4:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20483,14 +20483,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="15.75">
-      <c r="B4" s="273" t="s">
+      <c r="B4" s="259" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="259"/>
+      <c r="F4" s="259"/>
+      <c r="G4" s="259"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="B5" s="51"/>
@@ -20501,130 +20501,130 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B6" s="274" t="s">
+      <c r="B6" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="258"/>
-      <c r="D6" s="257" t="s">
+      <c r="C6" s="268"/>
+      <c r="D6" s="267" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="258"/>
-      <c r="F6" s="257" t="s">
+      <c r="E6" s="268"/>
+      <c r="F6" s="267" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="258"/>
+      <c r="G6" s="268"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="275" t="s">
+      <c r="B7" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="276"/>
-      <c r="D7" s="277">
+      <c r="C7" s="271"/>
+      <c r="D7" s="272">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$45,"=1.0")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$45,"=1.25")+(COUNTIF('SEMESTRAL GRADE'!$D$22:$D$45,"=1.50")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$45,"=1.75"))</f>
         <v>2</v>
       </c>
-      <c r="E7" s="278"/>
-      <c r="F7" s="279">
+      <c r="E7" s="273"/>
+      <c r="F7" s="274">
         <f t="shared" ref="F7:F12" si="0">(D7/$D$13)*100</f>
         <v>8.3333333333333321</v>
       </c>
-      <c r="G7" s="280"/>
+      <c r="G7" s="275"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="269" t="s">
+      <c r="B8" s="263" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="270"/>
-      <c r="D8" s="263">
+      <c r="C8" s="264"/>
+      <c r="D8" s="276">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$45,"=2.0")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$45,"=2.25")+(COUNTIF('SEMESTRAL GRADE'!$D$22:$D$45,"=2.50")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$45,"=2.75"))</f>
         <v>13</v>
       </c>
-      <c r="E8" s="264"/>
-      <c r="F8" s="265">
+      <c r="E8" s="277"/>
+      <c r="F8" s="278">
         <f t="shared" si="0"/>
         <v>54.166666666666664</v>
       </c>
-      <c r="G8" s="266"/>
+      <c r="G8" s="279"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="269" t="s">
+      <c r="B9" s="263" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="270"/>
-      <c r="D9" s="263">
+      <c r="C9" s="264"/>
+      <c r="D9" s="276">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$45,"=3.0")</f>
         <v>7</v>
       </c>
-      <c r="E9" s="264"/>
-      <c r="F9" s="265">
+      <c r="E9" s="277"/>
+      <c r="F9" s="278">
         <f t="shared" si="0"/>
         <v>29.166666666666668</v>
       </c>
-      <c r="G9" s="266"/>
+      <c r="G9" s="279"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="269" t="s">
+      <c r="B10" s="263" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="270"/>
-      <c r="D10" s="263">
+      <c r="C10" s="264"/>
+      <c r="D10" s="276">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$45,"=5.0")</f>
         <v>2</v>
       </c>
-      <c r="E10" s="264"/>
-      <c r="F10" s="265">
+      <c r="E10" s="277"/>
+      <c r="F10" s="278">
         <f t="shared" si="0"/>
         <v>8.3333333333333321</v>
       </c>
-      <c r="G10" s="266"/>
+      <c r="G10" s="279"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="269" t="s">
+      <c r="B11" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="270"/>
-      <c r="D11" s="267">
+      <c r="C11" s="264"/>
+      <c r="D11" s="284">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$45,"=INC")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="268"/>
-      <c r="F11" s="265">
+      <c r="E11" s="285"/>
+      <c r="F11" s="278">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="266"/>
+      <c r="G11" s="279"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="269" t="s">
+      <c r="B12" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="270"/>
-      <c r="D12" s="267">
+      <c r="C12" s="264"/>
+      <c r="D12" s="284">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$45,"=drp")</f>
         <v>0</v>
       </c>
-      <c r="E12" s="268"/>
-      <c r="F12" s="265">
+      <c r="E12" s="285"/>
+      <c r="F12" s="278">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="266"/>
+      <c r="G12" s="279"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="271" t="s">
+      <c r="B13" s="265" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="272"/>
-      <c r="D13" s="259">
+      <c r="C13" s="266"/>
+      <c r="D13" s="280">
         <f>SUM(D7:E12)</f>
         <v>24</v>
       </c>
-      <c r="E13" s="260"/>
-      <c r="F13" s="261">
+      <c r="E13" s="281"/>
+      <c r="F13" s="282">
         <f>SUM(F7:G12)</f>
         <v>100</v>
       </c>
-      <c r="G13" s="262"/>
+      <c r="G13" s="283"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="51"/>
@@ -20643,16 +20643,16 @@
       <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:8" ht="15.75">
-      <c r="A16" s="306" t="s">
+      <c r="A16" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="306"/>
-      <c r="C16" s="306"/>
-      <c r="D16" s="306"/>
-      <c r="E16" s="306"/>
-      <c r="F16" s="306"/>
-      <c r="G16" s="306"/>
-      <c r="H16" s="306"/>
+      <c r="B16" s="260"/>
+      <c r="C16" s="260"/>
+      <c r="D16" s="260"/>
+      <c r="E16" s="260"/>
+      <c r="F16" s="260"/>
+      <c r="G16" s="260"/>
+      <c r="H16" s="260"/>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="51"/>
@@ -20664,8 +20664,8 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="53"/>
-      <c r="B18" s="307"/>
-      <c r="C18" s="308"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="136"/>
       <c r="E18" s="51"/>
       <c r="F18" s="133" t="s">
         <v>101</v>
@@ -20673,12 +20673,12 @@
       <c r="G18" s="51"/>
     </row>
     <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="309" t="s">
+      <c r="A19" s="261" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="309"/>
-      <c r="C19" s="309"/>
-      <c r="D19" s="309"/>
+      <c r="B19" s="261"/>
+      <c r="C19" s="261"/>
+      <c r="D19" s="261"/>
       <c r="E19" s="51"/>
       <c r="F19" s="134" t="s">
         <v>167</v>
@@ -20686,22 +20686,22 @@
       <c r="G19" s="51"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="310" t="s">
+      <c r="A20" s="262" t="s">
         <v>266</v>
       </c>
-      <c r="B20" s="310"/>
-      <c r="C20" s="310"/>
-      <c r="D20" s="310"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="262"/>
+      <c r="D20" s="262"/>
       <c r="E20" s="51"/>
       <c r="F20" s="133" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="310"/>
-      <c r="B21" s="310"/>
-      <c r="C21" s="310"/>
-      <c r="D21" s="310"/>
+      <c r="A21" s="262"/>
+      <c r="B21" s="262"/>
+      <c r="C21" s="262"/>
+      <c r="D21" s="262"/>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="51"/>
@@ -20728,16 +20728,16 @@
       <c r="G24" s="51"/>
     </row>
     <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="306" t="s">
+      <c r="A25" s="260" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="306"/>
-      <c r="C25" s="306"/>
-      <c r="D25" s="306"/>
-      <c r="E25" s="306"/>
-      <c r="F25" s="306"/>
-      <c r="G25" s="306"/>
-      <c r="H25" s="306"/>
+      <c r="B25" s="260"/>
+      <c r="C25" s="260"/>
+      <c r="D25" s="260"/>
+      <c r="E25" s="260"/>
+      <c r="F25" s="260"/>
+      <c r="G25" s="260"/>
+      <c r="H25" s="260"/>
     </row>
     <row r="26" spans="1:8" ht="15.75">
       <c r="C26" s="51"/>
@@ -20745,40 +20745,40 @@
       <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="236" t="s">
+      <c r="A27" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
-      <c r="E27" s="236"/>
-      <c r="F27" s="236"/>
-      <c r="G27" s="236"/>
-      <c r="H27" s="236"/>
+      <c r="B27" s="235"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="235"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
     </row>
     <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="273" t="s">
+      <c r="A28" s="259" t="s">
         <v>267</v>
       </c>
-      <c r="B28" s="273"/>
-      <c r="C28" s="273"/>
-      <c r="D28" s="273"/>
-      <c r="E28" s="273"/>
-      <c r="F28" s="273"/>
-      <c r="G28" s="273"/>
-      <c r="H28" s="273"/>
+      <c r="B28" s="259"/>
+      <c r="C28" s="259"/>
+      <c r="D28" s="259"/>
+      <c r="E28" s="259"/>
+      <c r="F28" s="259"/>
+      <c r="G28" s="259"/>
+      <c r="H28" s="259"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="236" t="s">
+      <c r="A29" s="235" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="236"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="236"/>
-      <c r="F29" s="236"/>
-      <c r="G29" s="236"/>
-      <c r="H29" s="236"/>
+      <c r="B29" s="235"/>
+      <c r="C29" s="235"/>
+      <c r="D29" s="235"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="51"/>
@@ -20790,13 +20790,15 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D21"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -20813,15 +20815,13 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -20923,80 +20923,80 @@
       <c r="J6" s="103"/>
     </row>
     <row r="7" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A7" s="281" t="s">
+      <c r="A7" s="300" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="282"/>
-      <c r="C7" s="282"/>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="282"/>
-      <c r="J7" s="283"/>
+      <c r="B7" s="301"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="301"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="301"/>
+      <c r="J7" s="302"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A8" s="284" t="str">
+      <c r="A8" s="303" t="str">
         <f>UPPER(REGISTRATION!Q18)</f>
         <v>DEPARTMENT OF INFORMATION TECHNOLOGY</v>
       </c>
-      <c r="B8" s="285"/>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285"/>
-      <c r="E8" s="285"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="285" t="str">
+      <c r="B8" s="304"/>
+      <c r="C8" s="304"/>
+      <c r="D8" s="304"/>
+      <c r="E8" s="304"/>
+      <c r="F8" s="305"/>
+      <c r="G8" s="304" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!Q13,"SEMESTER"," ","A.Y."," ",REGISTRATION!Q12))</f>
         <v>SECONDSEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="H8" s="285"/>
-      <c r="I8" s="285"/>
-      <c r="J8" s="286"/>
+      <c r="H8" s="304"/>
+      <c r="I8" s="304"/>
+      <c r="J8" s="305"/>
     </row>
     <row r="9" spans="1:15" ht="20.25">
-      <c r="A9" s="287" t="s">
+      <c r="A9" s="306" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="288"/>
-      <c r="C9" s="289" t="str">
+      <c r="B9" s="307"/>
+      <c r="C9" s="308" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C7," - ",REGISTRATION!C6))</f>
         <v>DCIT 23 - DISCRETE STRUCTURE</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="288" t="s">
+      <c r="D9" s="308"/>
+      <c r="E9" s="308"/>
+      <c r="F9" s="308"/>
+      <c r="G9" s="307" t="s">
         <v>152</v>
       </c>
-      <c r="H9" s="288"/>
-      <c r="I9" s="290" t="str">
+      <c r="H9" s="307"/>
+      <c r="I9" s="309" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ", REGISTRATION!D8,REGISTRATION!E8))</f>
         <v>BSCS 1A</v>
       </c>
-      <c r="J9" s="291"/>
+      <c r="J9" s="310"/>
     </row>
     <row r="10" spans="1:15" ht="21" thickBot="1">
-      <c r="A10" s="292" t="s">
+      <c r="A10" s="286" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="293"/>
-      <c r="C10" s="294" t="str">
+      <c r="B10" s="287"/>
+      <c r="C10" s="288" t="str">
         <f>UPPER(REGISTRATION!Q14)</f>
         <v>GIMEL C. CONTILLO</v>
       </c>
-      <c r="D10" s="294"/>
-      <c r="E10" s="294"/>
-      <c r="F10" s="294"/>
-      <c r="G10" s="293" t="s">
+      <c r="D10" s="288"/>
+      <c r="E10" s="288"/>
+      <c r="F10" s="288"/>
+      <c r="G10" s="287" t="s">
         <v>154</v>
       </c>
-      <c r="H10" s="293"/>
-      <c r="I10" s="295" t="str">
+      <c r="H10" s="287"/>
+      <c r="I10" s="289" t="str">
         <f>CONCATENATE(REGISTRATION!J6," ", REGISTRATION!J7," ", REGISTRATION!J8)</f>
         <v>Wednesday 7AM - 10AM TS Room</v>
       </c>
-      <c r="J10" s="296"/>
+      <c r="J10" s="290"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1">
       <c r="A11" s="100"/>
@@ -21011,33 +21011,33 @@
       <c r="J11" s="101"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A12" s="297"/>
-      <c r="B12" s="299" t="s">
+      <c r="A12" s="291"/>
+      <c r="B12" s="293" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="299" t="s">
+      <c r="C12" s="293" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="299" t="s">
+      <c r="D12" s="293" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="301" t="s">
+      <c r="E12" s="295" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="303" t="s">
+      <c r="F12" s="297" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="304"/>
-      <c r="H12" s="304"/>
-      <c r="I12" s="304"/>
-      <c r="J12" s="305"/>
+      <c r="G12" s="298"/>
+      <c r="H12" s="298"/>
+      <c r="I12" s="298"/>
+      <c r="J12" s="299"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A13" s="298"/>
-      <c r="B13" s="300"/>
-      <c r="C13" s="300"/>
-      <c r="D13" s="300"/>
-      <c r="E13" s="302"/>
+      <c r="A13" s="292"/>
+      <c r="B13" s="294"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="296"/>
       <c r="F13" s="116">
         <v>43283</v>
       </c>
@@ -22310,6 +22310,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -22320,13 +22327,6 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:J12"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="B14:B58">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
